--- a/trunk/Documentacion/UAT-METRICAS.xlsx
+++ b/trunk/Documentacion/UAT-METRICAS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>DOCKET</t>
   </si>
@@ -181,9 +181,6 @@
     <t>AUX_TM</t>
   </si>
   <si>
-    <t>Hs productivas</t>
-  </si>
-  <si>
     <t>Damian Molinari</t>
   </si>
   <si>
@@ -192,13 +189,27 @@
   <si>
     <t>Tiempo logueado</t>
   </si>
+  <si>
+    <t>Hs diarias</t>
+  </si>
+  <si>
+    <t>Hs trabajadas</t>
+  </si>
+  <si>
+    <t>Horas extra 100%</t>
+  </si>
+  <si>
+    <t>HS_PRODUCTIVAS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="h:mm:ss;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="h:mm"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -743,9 +754,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -756,11 +764,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2858,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2869,9 +2880,10 @@
     <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2888,2500 +2900,3019 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11">
         <v>40452</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>40452</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>0.44166666666666665</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="16">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>103</v>
       </c>
-      <c r="F2" s="16">
-        <f>ROUND(((B2+D2)-(A2+C2))*24,0)*60</f>
-        <v>360</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="F2" s="14">
+        <f>ROUND(((B2+D2)-(A2+C2))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="10">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11">
         <v>40453</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>40453</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="16">
         <v>0.69305555555555554</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>103</v>
       </c>
-      <c r="F3" s="16">
-        <f t="shared" ref="F3:F66" si="0">ROUND(((B3+D3)-(A3+C3))*24,0)*60</f>
-        <v>420</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12">
+      <c r="H3">
+        <f>ROUND(((B3+D3)-(A3+C3))*24,0)</f>
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11">
         <v>40454</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>40454</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="16">
         <v>0.40625</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>0.64930555555555558</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>103</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <f>ROUND(((B4+D4)-(A4+C4))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11">
+        <v>40455</v>
+      </c>
+      <c r="B5" s="11">
+        <v>40455</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E5" s="10">
+        <v>103</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" ref="F3:H66" si="0">ROUND(((B5+D5)-(A5+C5))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
+        <v>228</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11">
+        <v>40456</v>
+      </c>
+      <c r="B6" s="11">
+        <v>40456</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E6" s="10">
+        <v>103</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G4" s="11">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10">
+        <v>266</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11">
+        <v>40457</v>
+      </c>
+      <c r="B7" s="11">
+        <v>40457</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="E7" s="10">
+        <v>103</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="10">
+        <v>207</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11">
+        <v>40458</v>
+      </c>
+      <c r="B8" s="11">
+        <v>40458</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E8" s="10">
+        <v>103</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>302</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11">
+        <v>40459</v>
+      </c>
+      <c r="B9" s="11">
+        <v>40459</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="E9" s="10">
+        <v>103</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="10">
+        <v>239</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11">
+        <v>40460</v>
+      </c>
+      <c r="B10" s="11">
+        <v>40460</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="E10" s="10">
+        <v>103</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>199</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(((B10+D10)-(A10+C10))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11">
+        <v>40461</v>
+      </c>
+      <c r="B11" s="11">
+        <v>40461</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="E11" s="10">
+        <v>103</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>207</v>
+      </c>
+      <c r="H11">
+        <f>ROUND(((B11+D11)-(A11+C11))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11">
+        <v>40462</v>
+      </c>
+      <c r="B12" s="11">
+        <v>40462</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="E12" s="10">
+        <v>103</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="10">
+        <v>224</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11">
+        <v>40463</v>
+      </c>
+      <c r="B13" s="11">
+        <v>40463</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="E13" s="10">
+        <v>103</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="10">
+        <v>280</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11">
+        <v>40464</v>
+      </c>
+      <c r="B14" s="11">
+        <v>40464</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="E14" s="10">
+        <v>103</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="10">
+        <v>244</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11">
+        <v>40465</v>
+      </c>
+      <c r="B15" s="11">
+        <v>40465</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E15" s="10">
+        <v>103</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="10">
+        <v>282</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11">
+        <v>40466</v>
+      </c>
+      <c r="B16" s="11">
+        <v>40466</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="E16" s="10">
+        <v>103</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="10">
+        <v>260</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="11">
+        <v>40467</v>
+      </c>
+      <c r="B17" s="11">
+        <v>40467</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="E17" s="10">
+        <v>103</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>159</v>
+      </c>
+      <c r="H17">
+        <f>ROUND(((B17+D17)-(A17+C17))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="11">
+        <v>40468</v>
+      </c>
+      <c r="B18" s="11">
+        <v>40468</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E18" s="10">
+        <v>103</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>238</v>
+      </c>
+      <c r="H18">
+        <f>ROUND(((B18+D18)-(A18+C18))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="11">
+        <v>40469</v>
+      </c>
+      <c r="B19" s="11">
+        <v>40469</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="10">
+        <v>103</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G19" s="10">
+        <v>199</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="11">
+        <v>40470</v>
+      </c>
+      <c r="B20" s="11">
+        <v>40470</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="E20" s="10">
+        <v>103</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G20" s="10">
+        <v>258</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="11">
+        <v>40471</v>
+      </c>
+      <c r="B21" s="11">
+        <v>40471</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="E21" s="10">
+        <v>103</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G21" s="10">
+        <v>222</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="11">
+        <v>40472</v>
+      </c>
+      <c r="B22" s="11">
+        <v>40472</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E22" s="10">
+        <v>103</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="10">
+        <v>185</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="11">
+        <v>40473</v>
+      </c>
+      <c r="B23" s="11">
+        <v>40473</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="E23" s="10">
+        <v>103</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G23" s="10">
+        <v>271</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="11">
+        <v>40474</v>
+      </c>
+      <c r="B24" s="11">
+        <v>40474</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E24" s="10">
+        <v>103</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>228</v>
+      </c>
+      <c r="H24">
+        <f>ROUND(((B24+D24)-(A24+C24))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11">
+        <v>40475</v>
+      </c>
+      <c r="B25" s="11">
+        <v>40475</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="E25" s="10">
+        <v>103</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>247</v>
+      </c>
+      <c r="H25">
+        <f>ROUND(((B25+D25)-(A25+C25))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="11">
+        <v>40476</v>
+      </c>
+      <c r="B26" s="11">
+        <v>40476</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="E26" s="10">
+        <v>103</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G26" s="10">
+        <v>205</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="11">
+        <v>40477</v>
+      </c>
+      <c r="B27" s="11">
+        <v>40477</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E27" s="10">
+        <v>103</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G27" s="10">
+        <v>164</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="11">
+        <v>40478</v>
+      </c>
+      <c r="B28" s="11">
+        <v>40478</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="E28" s="10">
+        <v>103</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G28" s="10">
+        <v>200</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11">
+        <v>40479</v>
+      </c>
+      <c r="B29" s="11">
+        <v>40479</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="E29" s="10">
+        <v>103</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G29" s="10">
+        <v>187</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="11">
+        <v>40480</v>
+      </c>
+      <c r="B30" s="11">
+        <v>40480</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="E30" s="10">
+        <v>103</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G30" s="10">
+        <v>233</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11">
+        <v>40481</v>
+      </c>
+      <c r="B31" s="11">
+        <v>40481</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="E31" s="10">
+        <v>103</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>205</v>
+      </c>
+      <c r="H31">
+        <f>ROUND(((B31+D31)-(A31+C31))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="11">
+        <v>40482</v>
+      </c>
+      <c r="B32" s="11">
+        <v>40482</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="E32" s="10">
+        <v>103</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>160</v>
+      </c>
+      <c r="H32">
+        <f>ROUND(((B32+D32)-(A32+C32))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="15">
+        <v>40452</v>
+      </c>
+      <c r="B33" s="15">
+        <v>40452</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="E33" s="10">
+        <v>104</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G33" s="10">
+        <v>232</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="15">
+        <v>40453</v>
+      </c>
+      <c r="B34" s="15">
+        <v>40453</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="E34" s="10">
+        <v>104</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>195</v>
+      </c>
+      <c r="H34">
+        <f>ROUND(((B34+D34)-(A34+C34))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="15">
+        <v>40454</v>
+      </c>
+      <c r="B35" s="15">
+        <v>40454</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="E35" s="10">
+        <v>104</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>204</v>
+      </c>
+      <c r="H35">
+        <f>ROUND(((B35+D35)-(A35+C35))*24,0)</f>
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="15">
         <v>40455</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B36" s="15">
         <v>40455</v>
       </c>
-      <c r="C5" s="14">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.66736111111111107</v>
-      </c>
-      <c r="E5" s="11">
-        <v>103</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="C36" s="9">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E36" s="10">
+        <v>104</v>
+      </c>
+      <c r="F36" s="14">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G5" s="11">
+        <v>6</v>
+      </c>
+      <c r="G36" s="10">
+        <v>232</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="15">
+        <v>40456</v>
+      </c>
+      <c r="B37" s="15">
+        <v>40456</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="E37" s="10">
+        <v>104</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G37" s="10">
+        <v>182</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="15">
+        <v>40457</v>
+      </c>
+      <c r="B38" s="15">
+        <v>40457</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="E38" s="10">
+        <v>104</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G38" s="10">
+        <v>221</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="15">
+        <v>40458</v>
+      </c>
+      <c r="B39" s="15">
+        <v>40458</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="E39" s="10">
+        <v>104</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G39" s="10">
+        <v>216</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="15">
+        <v>40459</v>
+      </c>
+      <c r="B40" s="15">
+        <v>40459</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="E40" s="10">
+        <v>104</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G40" s="10">
+        <v>175</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="15">
+        <v>40460</v>
+      </c>
+      <c r="B41" s="15">
+        <v>40460</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="E41" s="10">
+        <v>104</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>248</v>
+      </c>
+      <c r="H41">
+        <f>ROUND(((B41+D41)-(A41+C41))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="15">
+        <v>40461</v>
+      </c>
+      <c r="B42" s="15">
+        <v>40461</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="E42" s="10">
+        <v>104</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>286</v>
+      </c>
+      <c r="H42">
+        <f>ROUND(((B42+D42)-(A42+C42))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="15">
+        <v>40462</v>
+      </c>
+      <c r="B43" s="15">
+        <v>40462</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="E43" s="10">
+        <v>104</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G43" s="10">
+        <v>250</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="15">
+        <v>40463</v>
+      </c>
+      <c r="B44" s="15">
+        <v>40463</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="E44" s="10">
+        <v>104</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G44" s="10">
+        <v>240</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="15">
+        <v>40464</v>
+      </c>
+      <c r="B45" s="15">
+        <v>40464</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="E45" s="10">
+        <v>104</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G45" s="10">
+        <v>216</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="15">
+        <v>40465</v>
+      </c>
+      <c r="B46" s="15">
+        <v>40465</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="E46" s="10">
+        <v>104</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G46" s="10">
+        <v>244</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="15">
+        <v>40466</v>
+      </c>
+      <c r="B47" s="15">
+        <v>40466</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="E47" s="10">
+        <v>104</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G47" s="10">
+        <v>242</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="15">
+        <v>40467</v>
+      </c>
+      <c r="B48" s="15">
+        <v>40467</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="E48" s="10">
+        <v>104</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>186</v>
+      </c>
+      <c r="H48">
+        <f>ROUND(((B48+D48)-(A48+C48))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="15">
+        <v>40468</v>
+      </c>
+      <c r="B49" s="15">
+        <v>40468</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="E49" s="10">
+        <v>104</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>258</v>
+      </c>
+      <c r="H49">
+        <f>ROUND(((B49+D49)-(A49+C49))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="15">
+        <v>40469</v>
+      </c>
+      <c r="B50" s="15">
+        <v>40469</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="E50" s="10">
+        <v>104</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G50" s="10">
         <v>228</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="15">
+        <v>40470</v>
+      </c>
+      <c r="B51" s="15">
+        <v>40470</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="E51" s="10">
+        <v>104</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G51" s="10">
+        <v>277</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="15">
+        <v>40471</v>
+      </c>
+      <c r="B52" s="15">
+        <v>40471</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="E52" s="10">
+        <v>104</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G52" s="10">
+        <v>257</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="15">
+        <v>40472</v>
+      </c>
+      <c r="B53" s="15">
+        <v>40472</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="E53" s="10">
+        <v>104</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G53" s="10">
+        <v>226</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="15">
+        <v>40473</v>
+      </c>
+      <c r="B54" s="15">
+        <v>40473</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.65625</v>
+      </c>
+      <c r="E54" s="10">
+        <v>104</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G54" s="10">
+        <v>264</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="15">
+        <v>40474</v>
+      </c>
+      <c r="B55" s="15">
+        <v>40474</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="E55" s="10">
+        <v>104</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>232</v>
+      </c>
+      <c r="H55">
+        <f>ROUND(((B55+D55)-(A55+C55))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="15">
+        <v>40475</v>
+      </c>
+      <c r="B56" s="15">
+        <v>40475</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="E56" s="10">
+        <v>104</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>181</v>
+      </c>
+      <c r="H56">
+        <f>ROUND(((B56+D56)-(A56+C56))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="15">
+        <v>40476</v>
+      </c>
+      <c r="B57" s="15">
+        <v>40476</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="E57" s="10">
+        <v>104</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G57" s="10">
+        <v>215</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="15">
+        <v>40477</v>
+      </c>
+      <c r="B58" s="15">
+        <v>40477</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="E58" s="10">
+        <v>104</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G58" s="10">
+        <v>219</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="15">
+        <v>40478</v>
+      </c>
+      <c r="B59" s="15">
+        <v>40478</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E59" s="10">
+        <v>104</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G59" s="10">
+        <v>219</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="15">
+        <v>40479</v>
+      </c>
+      <c r="B60" s="15">
+        <v>40479</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="E60" s="10">
+        <v>104</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G60" s="10">
+        <v>223</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="15">
+        <v>40480</v>
+      </c>
+      <c r="B61" s="15">
+        <v>40480</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="E61" s="10">
+        <v>104</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G61" s="10">
+        <v>214</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="15">
+        <v>40481</v>
+      </c>
+      <c r="B62" s="15">
+        <v>40481</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E62" s="10">
+        <v>104</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>198</v>
+      </c>
+      <c r="H62">
+        <f>ROUND(((B62+D62)-(A62+C62))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="15">
+        <v>40482</v>
+      </c>
+      <c r="B63" s="15">
+        <v>40482</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="E63" s="10">
+        <v>104</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>222</v>
+      </c>
+      <c r="H63">
+        <f>ROUND(((B63+D63)-(A63+C63))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="15">
+        <v>40452</v>
+      </c>
+      <c r="B64" s="15">
+        <v>40452</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="E64" s="10">
+        <v>105</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G64" s="10">
+        <v>170</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="15">
+        <v>40453</v>
+      </c>
+      <c r="B65" s="15">
+        <v>40453</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="E65" s="10">
+        <v>105</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <v>255</v>
+      </c>
+      <c r="H65">
+        <f>ROUND(((B65+D65)-(A65+C65))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="15">
+        <v>40454</v>
+      </c>
+      <c r="B66" s="15">
+        <v>40454</v>
+      </c>
+      <c r="C66" s="9">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="E66" s="10">
+        <v>105</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <v>256</v>
+      </c>
+      <c r="H66">
+        <f>ROUND(((B66+D66)-(A66+C66))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="15">
+        <v>40455</v>
+      </c>
+      <c r="B67" s="15">
+        <v>40455</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="E67" s="10">
+        <v>105</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" ref="F67:F86" si="1">ROUND(((B67+D67)-(A67+C67))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G67" s="10">
+        <v>220</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="15">
         <v>40456</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B68" s="15">
         <v>40456</v>
       </c>
-      <c r="C6" s="14">
-        <v>0.44305555555555554</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.69027777777777777</v>
-      </c>
-      <c r="E6" s="11">
-        <v>103</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G6" s="11">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12">
+      <c r="C68" s="9">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="E68" s="10">
+        <v>105</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G68" s="10">
+        <v>205</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="15">
         <v>40457</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B69" s="15">
         <v>40457</v>
       </c>
-      <c r="C7" s="14">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.68888888888888899</v>
-      </c>
-      <c r="E7" s="11">
-        <v>103</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G7" s="11">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12">
+      <c r="C69" s="9">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="E69" s="10">
+        <v>105</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G69" s="10">
+        <v>257</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="15">
         <v>40458</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B70" s="15">
         <v>40458</v>
       </c>
-      <c r="C8" s="14">
-        <v>0.4458333333333333</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.66736111111111107</v>
-      </c>
-      <c r="E8" s="11">
-        <v>103</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G8" s="11">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12">
+      <c r="C70" s="9">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="E70" s="10">
+        <v>105</v>
+      </c>
+      <c r="F70" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G70" s="10">
+        <v>225</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="15">
         <v>40459</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B71" s="15">
         <v>40459</v>
       </c>
-      <c r="C9" s="14">
-        <v>0.45416666666666666</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="E9" s="11">
-        <v>103</v>
-      </c>
-      <c r="F9" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G9" s="11">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12">
+      <c r="C71" s="9">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="E71" s="10">
+        <v>105</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G71" s="10">
+        <v>297</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="15">
         <v>40460</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B72" s="15">
         <v>40460</v>
       </c>
-      <c r="C10" s="14">
-        <v>0.4055555555555555</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="E10" s="11">
-        <v>103</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G10" s="11">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12">
+      <c r="C72" s="9">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="E72" s="10">
+        <v>105</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>238</v>
+      </c>
+      <c r="H72">
+        <f>ROUND(((B72+D72)-(A72+C72))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="15">
         <v>40461</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B73" s="15">
         <v>40461</v>
       </c>
-      <c r="C11" s="14">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.67222222222222217</v>
-      </c>
-      <c r="E11" s="11">
-        <v>103</v>
-      </c>
-      <c r="F11" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G11" s="11">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12">
+      <c r="C73" s="9">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="E73" s="10">
+        <v>105</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <v>163</v>
+      </c>
+      <c r="H73">
+        <f>ROUND(((B73+D73)-(A73+C73))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="15">
         <v>40462</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B74" s="15">
         <v>40462</v>
       </c>
-      <c r="C12" s="14">
-        <v>0.43472222222222223</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.69652777777777775</v>
-      </c>
-      <c r="E12" s="11">
-        <v>103</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G12" s="11">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12">
+      <c r="C74" s="9">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="E74" s="10">
+        <v>105</v>
+      </c>
+      <c r="F74" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G74" s="10">
+        <v>211</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="15">
         <v>40463</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B75" s="15">
         <v>40463</v>
       </c>
-      <c r="C13" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.63263888888888886</v>
-      </c>
-      <c r="E13" s="11">
-        <v>103</v>
-      </c>
-      <c r="F13" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G13" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12">
+      <c r="C75" s="9">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="E75" s="10">
+        <v>105</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G75" s="10">
+        <v>236</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="15">
         <v>40464</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B76" s="15">
         <v>40464</v>
       </c>
-      <c r="C14" s="14">
-        <v>0.44513888888888892</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.69305555555555554</v>
-      </c>
-      <c r="E14" s="11">
-        <v>103</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G14" s="11">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12">
+      <c r="C76" s="9">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="E76" s="10">
+        <v>105</v>
+      </c>
+      <c r="F76" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G76" s="10">
+        <v>237</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="15">
         <v>40465</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B77" s="15">
         <v>40465</v>
       </c>
-      <c r="C15" s="14">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="E15" s="11">
-        <v>103</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G15" s="11">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12">
+      <c r="C77" s="9">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E77" s="10">
+        <v>105</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G77" s="10">
+        <v>209</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="15">
         <v>40466</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B78" s="15">
         <v>40466</v>
       </c>
-      <c r="C16" s="14">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="E16" s="11">
-        <v>103</v>
-      </c>
-      <c r="F16" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G16" s="11">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="12">
+      <c r="C78" s="9">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0.85277777777777775</v>
+      </c>
+      <c r="E78" s="10">
+        <v>105</v>
+      </c>
+      <c r="F78" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G78" s="10">
+        <v>196</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="15">
         <v>40467</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B79" s="15">
         <v>40467</v>
       </c>
-      <c r="C17" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.68958333333333333</v>
-      </c>
-      <c r="E17" s="11">
-        <v>103</v>
-      </c>
-      <c r="F17" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G17" s="11">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12">
+      <c r="C79" s="9">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E79" s="10">
+        <v>105</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+      <c r="G79" s="10">
+        <v>145</v>
+      </c>
+      <c r="H79">
+        <f>ROUND(((B79+D79)-(A79+C79))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="15">
         <v>40468</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B80" s="15">
         <v>40468</v>
       </c>
-      <c r="C18" s="14">
-        <v>0.44861111111111113</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="E18" s="11">
-        <v>103</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G18" s="11">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12">
+      <c r="C80" s="9">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="E80" s="10">
+        <v>105</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>189</v>
+      </c>
+      <c r="H80">
+        <f>ROUND(((B80+D80)-(A80+C80))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="15">
         <v>40469</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B81" s="15">
         <v>40469</v>
       </c>
-      <c r="C19" s="14">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E19" s="11">
-        <v>103</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G19" s="11">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12">
+      <c r="C81" s="9">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="E81" s="10">
+        <v>105</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G81" s="10">
+        <v>250</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="15">
         <v>40470</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B82" s="15">
         <v>40470</v>
       </c>
-      <c r="C20" s="14">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.68958333333333333</v>
-      </c>
-      <c r="E20" s="11">
-        <v>103</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G20" s="11">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="12">
+      <c r="C82" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="E82" s="10">
+        <v>105</v>
+      </c>
+      <c r="F82" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G82" s="10">
+        <v>287</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="15">
         <v>40471</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B83" s="15">
         <v>40471</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.68680555555555556</v>
-      </c>
-      <c r="E21" s="11">
-        <v>103</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G21" s="11">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="12">
+      <c r="C83" s="9">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="E83" s="10">
+        <v>105</v>
+      </c>
+      <c r="F83" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G83" s="10">
+        <v>242</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="15">
         <v>40472</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B84" s="15">
         <v>40472</v>
       </c>
-      <c r="C22" s="14">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="E22" s="11">
-        <v>103</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G22" s="11">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="12">
+      <c r="C84" s="9">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E84" s="10">
+        <v>105</v>
+      </c>
+      <c r="F84" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G84" s="10">
+        <v>270</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="15">
         <v>40473</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B85" s="15">
         <v>40473</v>
       </c>
-      <c r="C23" s="14">
-        <v>0.45694444444444443</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.6777777777777777</v>
-      </c>
-      <c r="E23" s="11">
-        <v>103</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G23" s="11">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="12">
+      <c r="C85" s="9">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="E85" s="10">
+        <v>105</v>
+      </c>
+      <c r="F85" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G85" s="10">
+        <v>270</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="15">
         <v>40474</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B86" s="15">
         <v>40474</v>
       </c>
-      <c r="C24" s="14">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="E24" s="11">
-        <v>103</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G24" s="11">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12">
-        <v>40475</v>
-      </c>
-      <c r="B25" s="12">
-        <v>40475</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.67986111111111114</v>
-      </c>
-      <c r="E25" s="11">
-        <v>103</v>
-      </c>
-      <c r="F25" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G25" s="11">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="12">
-        <v>40476</v>
-      </c>
-      <c r="B26" s="12">
-        <v>40476</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.38472222222222219</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="E26" s="11">
-        <v>103</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="G26" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="12">
-        <v>40477</v>
-      </c>
-      <c r="B27" s="12">
-        <v>40477</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="E27" s="11">
-        <v>103</v>
-      </c>
-      <c r="F27" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G27" s="11">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12">
-        <v>40478</v>
-      </c>
-      <c r="B28" s="12">
-        <v>40478</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.42777777777777781</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.67152777777777783</v>
-      </c>
-      <c r="E28" s="11">
-        <v>103</v>
-      </c>
-      <c r="F28" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G28" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12">
-        <v>40479</v>
-      </c>
-      <c r="B29" s="12">
-        <v>40479</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0.68680555555555556</v>
-      </c>
-      <c r="E29" s="11">
-        <v>103</v>
-      </c>
-      <c r="F29" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G29" s="11">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12">
-        <v>40480</v>
-      </c>
-      <c r="B30" s="12">
-        <v>40480</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="E30" s="11">
-        <v>103</v>
-      </c>
-      <c r="F30" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G30" s="11">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12">
-        <v>40481</v>
-      </c>
-      <c r="B31" s="12">
-        <v>40481</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.45416666666666666</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0.67083333333333339</v>
-      </c>
-      <c r="E31" s="11">
-        <v>103</v>
-      </c>
-      <c r="F31" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G31" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="12">
-        <v>40482</v>
-      </c>
-      <c r="B32" s="12">
-        <v>40482</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D32" s="14">
-        <v>0.66875000000000007</v>
-      </c>
-      <c r="E32" s="11">
-        <v>103</v>
-      </c>
-      <c r="F32" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G32" s="11">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="9">
-        <v>40452</v>
-      </c>
-      <c r="B33" s="9">
-        <v>40452</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.39652777777777781</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="E33" s="11">
-        <v>104</v>
-      </c>
-      <c r="F33" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G33" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="9">
-        <v>40453</v>
-      </c>
-      <c r="B34" s="9">
-        <v>40453</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.4069444444444445</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.63611111111111118</v>
-      </c>
-      <c r="E34" s="11">
-        <v>104</v>
-      </c>
-      <c r="F34" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G34" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="9">
-        <v>40454</v>
-      </c>
-      <c r="B35" s="9">
-        <v>40454</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.6972222222222223</v>
-      </c>
-      <c r="E35" s="11">
-        <v>104</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="G35" s="11">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="9">
-        <v>40455</v>
-      </c>
-      <c r="B36" s="9">
-        <v>40455</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.38125000000000003</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.62708333333333333</v>
-      </c>
-      <c r="E36" s="11">
-        <v>104</v>
-      </c>
-      <c r="F36" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G36" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="9">
-        <v>40456</v>
-      </c>
-      <c r="B37" s="9">
-        <v>40456</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.67152777777777783</v>
-      </c>
-      <c r="E37" s="11">
-        <v>104</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G37" s="11">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="9">
-        <v>40457</v>
-      </c>
-      <c r="B38" s="9">
-        <v>40457</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.38263888888888892</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="E38" s="11">
-        <v>104</v>
-      </c>
-      <c r="F38" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G38" s="11">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="9">
-        <v>40458</v>
-      </c>
-      <c r="B39" s="9">
-        <v>40458</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.6743055555555556</v>
-      </c>
-      <c r="E39" s="11">
-        <v>104</v>
-      </c>
-      <c r="F39" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G39" s="11">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="9">
-        <v>40459</v>
-      </c>
-      <c r="B40" s="9">
-        <v>40459</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="E40" s="11">
-        <v>104</v>
-      </c>
-      <c r="F40" s="16">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="G40" s="11">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="9">
-        <v>40460</v>
-      </c>
-      <c r="B41" s="9">
-        <v>40460</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.65555555555555556</v>
-      </c>
-      <c r="E41" s="11">
-        <v>104</v>
-      </c>
-      <c r="F41" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G41" s="11">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="9">
-        <v>40461</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40461</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.44375000000000003</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.70624999999999993</v>
-      </c>
-      <c r="E42" s="11">
-        <v>104</v>
-      </c>
-      <c r="F42" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G42" s="11">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="9">
-        <v>40462</v>
-      </c>
-      <c r="B43" s="9">
-        <v>40462</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.62777777777777777</v>
-      </c>
-      <c r="E43" s="11">
-        <v>104</v>
-      </c>
-      <c r="F43" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G43" s="11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="9">
-        <v>40463</v>
-      </c>
-      <c r="B44" s="9">
-        <v>40463</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="E44" s="11">
-        <v>104</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G44" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="9">
-        <v>40464</v>
-      </c>
-      <c r="B45" s="9">
-        <v>40464</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0.40833333333333338</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.65555555555555556</v>
-      </c>
-      <c r="E45" s="11">
-        <v>104</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G45" s="11">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="9">
-        <v>40465</v>
-      </c>
-      <c r="B46" s="9">
-        <v>40465</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0.44375000000000003</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0.68263888888888891</v>
-      </c>
-      <c r="E46" s="11">
-        <v>104</v>
-      </c>
-      <c r="F46" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G46" s="11">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="9">
-        <v>40466</v>
-      </c>
-      <c r="B47" s="9">
-        <v>40466</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.68958333333333333</v>
-      </c>
-      <c r="E47" s="11">
-        <v>104</v>
-      </c>
-      <c r="F47" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G47" s="11">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="9">
-        <v>40467</v>
-      </c>
-      <c r="B48" s="9">
-        <v>40467</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0.45416666666666666</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.68680555555555556</v>
-      </c>
-      <c r="E48" s="11">
-        <v>104</v>
-      </c>
-      <c r="F48" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G48" s="11">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="9">
-        <v>40468</v>
-      </c>
-      <c r="B49" s="9">
-        <v>40468</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0.67152777777777783</v>
-      </c>
-      <c r="E49" s="11">
-        <v>104</v>
-      </c>
-      <c r="F49" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G49" s="11">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="9">
-        <v>40469</v>
-      </c>
-      <c r="B50" s="9">
-        <v>40469</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.63680555555555551</v>
-      </c>
-      <c r="E50" s="11">
-        <v>104</v>
-      </c>
-      <c r="F50" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G50" s="11">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="9">
-        <v>40470</v>
-      </c>
-      <c r="B51" s="9">
-        <v>40470</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.65347222222222223</v>
-      </c>
-      <c r="E51" s="11">
-        <v>104</v>
-      </c>
-      <c r="F51" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G51" s="11">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="9">
-        <v>40471</v>
-      </c>
-      <c r="B52" s="9">
-        <v>40471</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.64722222222222225</v>
-      </c>
-      <c r="E52" s="11">
-        <v>104</v>
-      </c>
-      <c r="F52" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G52" s="11">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="9">
-        <v>40472</v>
-      </c>
-      <c r="B53" s="9">
-        <v>40472</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0.65555555555555556</v>
-      </c>
-      <c r="E53" s="11">
-        <v>104</v>
-      </c>
-      <c r="F53" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G53" s="11">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="9">
-        <v>40473</v>
-      </c>
-      <c r="B54" s="9">
-        <v>40473</v>
-      </c>
-      <c r="C54" s="10">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0.65625</v>
-      </c>
-      <c r="E54" s="11">
-        <v>104</v>
-      </c>
-      <c r="F54" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G54" s="11">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="9">
-        <v>40474</v>
-      </c>
-      <c r="B55" s="9">
-        <v>40474</v>
-      </c>
-      <c r="C55" s="10">
-        <v>0.45069444444444445</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0.70624999999999993</v>
-      </c>
-      <c r="E55" s="11">
-        <v>104</v>
-      </c>
-      <c r="F55" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G55" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="9">
-        <v>40475</v>
-      </c>
-      <c r="B56" s="9">
-        <v>40475</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0.68125000000000002</v>
-      </c>
-      <c r="E56" s="11">
-        <v>104</v>
-      </c>
-      <c r="F56" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G56" s="11">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="9">
-        <v>40476</v>
-      </c>
-      <c r="B57" s="9">
-        <v>40476</v>
-      </c>
-      <c r="C57" s="10">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0.66041666666666665</v>
-      </c>
-      <c r="E57" s="11">
-        <v>104</v>
-      </c>
-      <c r="F57" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G57" s="11">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="9">
-        <v>40477</v>
-      </c>
-      <c r="B58" s="9">
-        <v>40477</v>
-      </c>
-      <c r="C58" s="10">
-        <v>0.45416666666666666</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0.70763888888888893</v>
-      </c>
-      <c r="E58" s="11">
-        <v>104</v>
-      </c>
-      <c r="F58" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G58" s="11">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="9">
-        <v>40478</v>
-      </c>
-      <c r="B59" s="9">
-        <v>40478</v>
-      </c>
-      <c r="C59" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0.62708333333333333</v>
-      </c>
-      <c r="E59" s="11">
-        <v>104</v>
-      </c>
-      <c r="F59" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G59" s="11">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="9">
-        <v>40479</v>
-      </c>
-      <c r="B60" s="9">
-        <v>40479</v>
-      </c>
-      <c r="C60" s="10">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0.64861111111111114</v>
-      </c>
-      <c r="E60" s="11">
-        <v>104</v>
-      </c>
-      <c r="F60" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G60" s="11">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="9">
-        <v>40480</v>
-      </c>
-      <c r="B61" s="9">
-        <v>40480</v>
-      </c>
-      <c r="C61" s="10">
-        <v>0.4069444444444445</v>
-      </c>
-      <c r="D61" s="10">
-        <v>0.62986111111111109</v>
-      </c>
-      <c r="E61" s="11">
-        <v>104</v>
-      </c>
-      <c r="F61" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G61" s="11">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="9">
-        <v>40481</v>
-      </c>
-      <c r="B62" s="9">
-        <v>40481</v>
-      </c>
-      <c r="C62" s="10">
-        <v>0.39305555555555555</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0.64236111111111105</v>
-      </c>
-      <c r="E62" s="11">
-        <v>104</v>
-      </c>
-      <c r="F62" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G62" s="11">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="9">
-        <v>40482</v>
-      </c>
-      <c r="B63" s="9">
-        <v>40482</v>
-      </c>
-      <c r="C63" s="10">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="E63" s="11">
-        <v>104</v>
-      </c>
-      <c r="F63" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G63" s="11">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="9">
-        <v>40452</v>
-      </c>
-      <c r="B64" s="9">
-        <v>40452</v>
-      </c>
-      <c r="C64" s="10">
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="E64" s="11">
+      <c r="C86" s="9">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="E86" s="10">
         <v>105</v>
       </c>
-      <c r="F64" s="16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G64" s="11">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="9">
-        <v>40453</v>
-      </c>
-      <c r="B65" s="9">
-        <v>40453</v>
-      </c>
-      <c r="C65" s="10">
-        <v>0.60138888888888886</v>
-      </c>
-      <c r="D65" s="10">
-        <v>0.85972222222222217</v>
-      </c>
-      <c r="E65" s="11">
-        <v>105</v>
-      </c>
-      <c r="F65" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G65" s="11">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="9">
-        <v>40454</v>
-      </c>
-      <c r="B66" s="9">
-        <v>40454</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0.56805555555555554</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="E66" s="11">
-        <v>105</v>
-      </c>
-      <c r="F66" s="16">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G66" s="11">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="9">
-        <v>40455</v>
-      </c>
-      <c r="B67" s="9">
-        <v>40455</v>
-      </c>
-      <c r="C67" s="10">
-        <v>0.60902777777777783</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0.86249999999999993</v>
-      </c>
-      <c r="E67" s="11">
-        <v>105</v>
-      </c>
-      <c r="F67" s="16">
-        <f t="shared" ref="F67:F86" si="1">ROUND(((B67+D67)-(A67+C67))*24,0)*60</f>
-        <v>360</v>
-      </c>
-      <c r="G67" s="11">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="9">
-        <v>40456</v>
-      </c>
-      <c r="B68" s="9">
-        <v>40456</v>
-      </c>
-      <c r="C68" s="10">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="D68" s="10">
-        <v>0.79236111111111107</v>
-      </c>
-      <c r="E68" s="11">
-        <v>105</v>
-      </c>
-      <c r="F68" s="16">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G68" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="9">
-        <v>40457</v>
-      </c>
-      <c r="B69" s="9">
-        <v>40457</v>
-      </c>
-      <c r="C69" s="10">
-        <v>0.56319444444444444</v>
-      </c>
-      <c r="D69" s="10">
-        <v>0.80138888888888893</v>
-      </c>
-      <c r="E69" s="11">
-        <v>105</v>
-      </c>
-      <c r="F69" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G69" s="11">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="9">
-        <v>40458</v>
-      </c>
-      <c r="B70" s="9">
-        <v>40458</v>
-      </c>
-      <c r="C70" s="10">
-        <v>0.62361111111111112</v>
-      </c>
-      <c r="D70" s="10">
-        <v>0.86944444444444446</v>
-      </c>
-      <c r="E70" s="11">
-        <v>105</v>
-      </c>
-      <c r="F70" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G70" s="11">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="9">
-        <v>40459</v>
-      </c>
-      <c r="B71" s="9">
-        <v>40459</v>
-      </c>
-      <c r="C71" s="10">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D71" s="10">
-        <v>0.84166666666666667</v>
-      </c>
-      <c r="E71" s="11">
-        <v>105</v>
-      </c>
-      <c r="F71" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G71" s="11">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="9">
-        <v>40460</v>
-      </c>
-      <c r="B72" s="9">
-        <v>40460</v>
-      </c>
-      <c r="C72" s="10">
-        <v>0.61527777777777781</v>
-      </c>
-      <c r="D72" s="10">
-        <v>0.86249999999999993</v>
-      </c>
-      <c r="E72" s="11">
-        <v>105</v>
-      </c>
-      <c r="F72" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G72" s="11">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="9">
-        <v>40461</v>
-      </c>
-      <c r="B73" s="9">
-        <v>40461</v>
-      </c>
-      <c r="C73" s="10">
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="D73" s="10">
-        <v>0.81041666666666667</v>
-      </c>
-      <c r="E73" s="11">
-        <v>105</v>
-      </c>
-      <c r="F73" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G73" s="11">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="9">
-        <v>40462</v>
-      </c>
-      <c r="B74" s="9">
-        <v>40462</v>
-      </c>
-      <c r="C74" s="10">
-        <v>0.59166666666666667</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0.8618055555555556</v>
-      </c>
-      <c r="E74" s="11">
-        <v>105</v>
-      </c>
-      <c r="F74" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G74" s="11">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="9">
-        <v>40463</v>
-      </c>
-      <c r="B75" s="9">
-        <v>40463</v>
-      </c>
-      <c r="C75" s="10">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0.81041666666666667</v>
-      </c>
-      <c r="E75" s="11">
-        <v>105</v>
-      </c>
-      <c r="F75" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G75" s="11">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="9">
-        <v>40464</v>
-      </c>
-      <c r="B76" s="9">
-        <v>40464</v>
-      </c>
-      <c r="C76" s="10">
-        <v>0.57777777777777783</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0.80069444444444438</v>
-      </c>
-      <c r="E76" s="11">
-        <v>105</v>
-      </c>
-      <c r="F76" s="16">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G76" s="11">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="9">
-        <v>40465</v>
-      </c>
-      <c r="B77" s="9">
-        <v>40465</v>
-      </c>
-      <c r="C77" s="10">
-        <v>0.60902777777777783</v>
-      </c>
-      <c r="D77" s="10">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="E77" s="11">
-        <v>105</v>
-      </c>
-      <c r="F77" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G77" s="11">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="9">
-        <v>40466</v>
-      </c>
-      <c r="B78" s="9">
-        <v>40466</v>
-      </c>
-      <c r="C78" s="10">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="D78" s="10">
-        <v>0.85277777777777775</v>
-      </c>
-      <c r="E78" s="11">
-        <v>105</v>
-      </c>
-      <c r="F78" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G78" s="11">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="9">
-        <v>40467</v>
-      </c>
-      <c r="B79" s="9">
-        <v>40467</v>
-      </c>
-      <c r="C79" s="10">
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E79" s="11">
-        <v>105</v>
-      </c>
-      <c r="F79" s="16">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G79" s="11">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="9">
-        <v>40468</v>
-      </c>
-      <c r="B80" s="9">
-        <v>40468</v>
-      </c>
-      <c r="C80" s="10">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0.8520833333333333</v>
-      </c>
-      <c r="E80" s="11">
-        <v>105</v>
-      </c>
-      <c r="F80" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G80" s="11">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="9">
-        <v>40469</v>
-      </c>
-      <c r="B81" s="9">
-        <v>40469</v>
-      </c>
-      <c r="C81" s="10">
-        <v>0.57777777777777783</v>
-      </c>
-      <c r="D81" s="10">
-        <v>0.83124999999999993</v>
-      </c>
-      <c r="E81" s="11">
-        <v>105</v>
-      </c>
-      <c r="F81" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G81" s="11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="9">
-        <v>40470</v>
-      </c>
-      <c r="B82" s="9">
-        <v>40470</v>
-      </c>
-      <c r="C82" s="10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D82" s="10">
-        <v>0.86388888888888893</v>
-      </c>
-      <c r="E82" s="11">
-        <v>105</v>
-      </c>
-      <c r="F82" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G82" s="11">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="9">
-        <v>40471</v>
-      </c>
-      <c r="B83" s="9">
-        <v>40471</v>
-      </c>
-      <c r="C83" s="10">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="D83" s="10">
-        <v>0.86388888888888893</v>
-      </c>
-      <c r="E83" s="11">
-        <v>105</v>
-      </c>
-      <c r="F83" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G83" s="11">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="9">
-        <v>40472</v>
-      </c>
-      <c r="B84" s="9">
-        <v>40472</v>
-      </c>
-      <c r="C84" s="10">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="D84" s="10">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="E84" s="11">
-        <v>105</v>
-      </c>
-      <c r="F84" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G84" s="11">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="9">
-        <v>40473</v>
-      </c>
-      <c r="B85" s="9">
-        <v>40473</v>
-      </c>
-      <c r="C85" s="10">
-        <v>0.55277777777777781</v>
-      </c>
-      <c r="D85" s="10">
-        <v>0.80694444444444446</v>
-      </c>
-      <c r="E85" s="11">
-        <v>105</v>
-      </c>
-      <c r="F85" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G85" s="11">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="9">
-        <v>40474</v>
-      </c>
-      <c r="B86" s="9">
-        <v>40474</v>
-      </c>
-      <c r="C86" s="10">
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="D86" s="10">
-        <v>0.80138888888888893</v>
-      </c>
-      <c r="E86" s="11">
-        <v>105</v>
-      </c>
-      <c r="F86" s="16">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="F86" s="14">
+        <v>0</v>
+      </c>
+      <c r="G86" s="10">
         <v>176</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="F88" s="16"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="F90" s="16"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="F91" s="16"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="F92" s="16"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="F93" s="16"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="F94" s="16"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="F95" s="16"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="F96" s="16"/>
+      <c r="H86">
+        <f>ROUND(((B86+D86)-(A86+C86))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="F87" s="14"/>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="F88" s="14"/>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="F94" s="14"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="F95" s="14"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="F97" s="16"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="F98" s="16"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="F99" s="16"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="F100" s="16"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="F101" s="16"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="F102" s="16"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="F103" s="16"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="F104" s="16"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="F105" s="16"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="F106" s="16"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="F107" s="16"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="F108" s="16"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="F109" s="16"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="F110" s="16"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="F111" s="16"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="F112" s="16"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="F113" s="16"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="F114" s="16"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="F115" s="16"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="F116" s="16"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="F117" s="16"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="F118" s="16"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="F119" s="16"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="F120" s="16"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="F121" s="16"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="F122" s="16"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="F123" s="16"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="F124" s="16"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="F125" s="16"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="F125" s="14"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="F126" s="16"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="F126" s="14"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="F127" s="16"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="F127" s="14"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="F128" s="16"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" spans="3:6">
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="F129" s="16"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="F129" s="14"/>
     </row>
     <row r="130" spans="3:6">
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="F130" s="16"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="F130" s="14"/>
     </row>
     <row r="131" spans="3:6">
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="F131" s="16"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="F131" s="14"/>
     </row>
     <row r="132" spans="3:6">
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="F132" s="16"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="F132" s="14"/>
     </row>
     <row r="133" spans="3:6">
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="F133" s="16"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="F133" s="14"/>
     </row>
     <row r="134" spans="3:6">
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="F134" s="16"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="F134" s="14"/>
     </row>
     <row r="135" spans="3:6">
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="F135" s="16"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="F135" s="14"/>
     </row>
     <row r="136" spans="3:6">
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="F136" s="16"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="F136" s="14"/>
     </row>
     <row r="137" spans="3:6">
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="F137" s="16"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="F137" s="14"/>
     </row>
     <row r="138" spans="3:6">
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="F138" s="16"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="F138" s="14"/>
     </row>
     <row r="139" spans="3:6">
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="F139" s="16"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="F139" s="14"/>
     </row>
     <row r="140" spans="3:6">
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="F140" s="16"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="F140" s="14"/>
     </row>
     <row r="141" spans="3:6">
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="F141" s="16"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="F141" s="14"/>
     </row>
     <row r="142" spans="3:6">
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="F142" s="16"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="F142" s="14"/>
     </row>
     <row r="143" spans="3:6">
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="F143" s="16"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" spans="3:6">
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="F144" s="16"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="F144" s="14"/>
     </row>
     <row r="145" spans="3:6">
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="F145" s="16"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="F145" s="14"/>
     </row>
     <row r="146" spans="3:6">
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="F146" s="16"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="F146" s="14"/>
     </row>
     <row r="147" spans="3:6">
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="F147" s="16"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="F147" s="14"/>
     </row>
     <row r="148" spans="3:6">
-      <c r="F148" s="16"/>
+      <c r="F148" s="14"/>
     </row>
     <row r="149" spans="3:6">
-      <c r="F149" s="16"/>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" spans="3:6">
-      <c r="F150" s="16"/>
+      <c r="F150" s="14"/>
     </row>
     <row r="151" spans="3:6">
-      <c r="F151" s="16"/>
+      <c r="F151" s="14"/>
     </row>
     <row r="152" spans="3:6">
-      <c r="F152" s="16"/>
+      <c r="F152" s="14"/>
     </row>
     <row r="153" spans="3:6">
-      <c r="F153" s="16"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="3:6">
-      <c r="F154" s="16"/>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" spans="3:6">
-      <c r="F155" s="16"/>
+      <c r="F155" s="14"/>
     </row>
     <row r="156" spans="3:6">
-      <c r="F156" s="16"/>
+      <c r="F156" s="14"/>
     </row>
     <row r="157" spans="3:6">
-      <c r="F157" s="16"/>
+      <c r="F157" s="14"/>
     </row>
     <row r="158" spans="3:6">
-      <c r="F158" s="16"/>
+      <c r="F158" s="14"/>
     </row>
     <row r="159" spans="3:6">
-      <c r="F159" s="16"/>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" spans="3:6">
-      <c r="F160" s="16"/>
+      <c r="F160" s="14"/>
     </row>
     <row r="161" spans="6:6">
-      <c r="F161" s="16"/>
+      <c r="F161" s="14"/>
     </row>
     <row r="162" spans="6:6">
-      <c r="F162" s="16"/>
+      <c r="F162" s="14"/>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="16"/>
+      <c r="F163" s="14"/>
     </row>
     <row r="164" spans="6:6">
-      <c r="F164" s="16"/>
+      <c r="F164" s="14"/>
     </row>
     <row r="165" spans="6:6">
-      <c r="F165" s="16"/>
+      <c r="F165" s="14"/>
     </row>
     <row r="166" spans="6:6">
-      <c r="F166" s="16"/>
+      <c r="F166" s="14"/>
     </row>
     <row r="167" spans="6:6">
-      <c r="F167" s="16"/>
+      <c r="F167" s="14"/>
     </row>
     <row r="168" spans="6:6">
-      <c r="F168" s="16"/>
+      <c r="F168" s="14"/>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="16"/>
+      <c r="F169" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5391,50 +5922,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="16">
-        <f>SUM('Clarin-Datos'!F2:F33)-SUM('Clarin-Datos'!G2:G33)</f>
-        <v>4143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>(SUMIF('Clarin-Datos'!F2:F32,"&gt;0",'Clarin-Datos'!I2:I32)*B2+SUM('Clarin-Datos'!H2:H32))</f>
+        <v>248</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2*60-SUM('Clarin-Datos'!G2:G32)</f>
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF('Clarin-Datos'!F33:F63,"&gt;0",'Clarin-Datos'!I33:I63)*B3+SUM('Clarin-Datos'!H33:H63)</f>
+        <v>247</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C2*60-SUM('Clarin-Datos'!G33:G63)</f>
+        <v>7878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="16">
-        <f>SUM('Clarin-Datos'!F33:F63)-SUM('Clarin-Datos'!G33:G63)</f>
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="16">
-        <f>SUM('Clarin-Datos'!F64:F86)-SUM('Clarin-Datos'!G64:G86)</f>
-        <v>2836</v>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF('Clarin-Datos'!F64:F86,"&gt;0",'Clarin-Datos'!I64:I86)*B4+SUM('Clarin-Datos'!H64:H86)</f>
+        <v>185</v>
+      </c>
+      <c r="D4" s="14">
+        <f>C3*60-SUM('Clarin-Datos'!G64:G86)</f>
+        <v>9616</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Documentacion/UAT-METRICAS.xlsx
+++ b/trunk/Documentacion/UAT-METRICAS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>DOCKET</t>
   </si>
@@ -201,6 +201,9 @@
   <si>
     <t>HS_PRODUCTIVAS</t>
   </si>
+  <si>
+    <t>Augusto Arribalzaga</t>
+  </si>
 </sst>
 </file>
 
@@ -208,10 +211,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="h:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -365,8 +368,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +566,12 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -732,7 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,14 +779,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2871,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2916,17 +2937,17 @@
       <c r="B2" s="11">
         <v>40452</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0.44166666666666665</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>0.69791666666666663</v>
       </c>
       <c r="E2" s="10">
         <v>103</v>
       </c>
-      <c r="F2" s="14">
-        <f>ROUND(((B2+D2)-(A2+C2))*24,0)</f>
+      <c r="F2" s="13">
+        <f>ROUNDDOWN(((B2+D2)-(A2+C2))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G2" s="10">
@@ -2946,24 +2967,24 @@
       <c r="B3" s="11">
         <v>40453</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0.69305555555555554</v>
       </c>
       <c r="E3" s="10">
         <v>103</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="10">
         <v>279</v>
       </c>
       <c r="H3">
-        <f>ROUND(((B3+D3)-(A3+C3))*24,0)</f>
-        <v>7</v>
+        <f>ROUNDDOWN(((B3+D3)-(A3+C3))*24,0)</f>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2976,24 +2997,24 @@
       <c r="B4" s="11">
         <v>40454</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>0.40625</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.64930555555555558</v>
       </c>
       <c r="E4" s="10">
         <v>103</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0</v>
       </c>
       <c r="G4" s="10">
         <v>278</v>
       </c>
       <c r="H4">
-        <f>ROUND(((B4+D4)-(A4+C4))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B4+D4)-(A4+C4))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3006,18 +3027,18 @@
       <c r="B5" s="11">
         <v>40455</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0.66736111111111107</v>
       </c>
       <c r="E5" s="10">
         <v>103</v>
       </c>
-      <c r="F5" s="14">
-        <f t="shared" ref="F3:H66" si="0">ROUND(((B5+D5)-(A5+C5))*24,0)</f>
-        <v>6</v>
+      <c r="F5" s="13">
+        <f>ROUNDDOWN(((B5+D5)-(A5+C5))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G5" s="10">
         <v>228</v>
@@ -3036,18 +3057,18 @@
       <c r="B6" s="11">
         <v>40456</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>0.44305555555555554</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>0.69027777777777777</v>
       </c>
       <c r="E6" s="10">
         <v>103</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F6" s="13">
+        <f>ROUNDDOWN(((B6+D6)-(A6+C6))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G6" s="10">
         <v>266</v>
@@ -3066,18 +3087,18 @@
       <c r="B7" s="11">
         <v>40457</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>0.68888888888888899</v>
       </c>
       <c r="E7" s="10">
         <v>103</v>
       </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F7" s="13">
+        <f>ROUNDDOWN(((B7+D7)-(A7+C7))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G7" s="10">
         <v>207</v>
@@ -3096,17 +3117,17 @@
       <c r="B8" s="11">
         <v>40458</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0.4458333333333333</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>0.66736111111111107</v>
       </c>
       <c r="E8" s="10">
         <v>103</v>
       </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
+      <c r="F8" s="13">
+        <f>ROUNDDOWN(((B8+D8)-(A8+C8))*24,0)</f>
         <v>5</v>
       </c>
       <c r="G8" s="10">
@@ -3126,17 +3147,17 @@
       <c r="B9" s="11">
         <v>40459</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0.45416666666666666</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>0.70694444444444438</v>
       </c>
       <c r="E9" s="10">
         <v>103</v>
       </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
+      <c r="F9" s="13">
+        <f>ROUNDDOWN(((B9+D9)-(A9+C9))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G9" s="10">
@@ -3156,23 +3177,23 @@
       <c r="B10" s="11">
         <v>40460</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>0.4055555555555555</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>0.6333333333333333</v>
       </c>
       <c r="E10" s="10">
         <v>103</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
       <c r="G10" s="10">
         <v>199</v>
       </c>
       <c r="H10">
-        <f>ROUND(((B10+D10)-(A10+C10))*24,0)</f>
+        <f>ROUNDDOWN(((B10+D10)-(A10+C10))*24,0)</f>
         <v>5</v>
       </c>
       <c r="I10">
@@ -3186,24 +3207,24 @@
       <c r="B11" s="11">
         <v>40461</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>0.42638888888888887</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>0.67222222222222217</v>
       </c>
       <c r="E11" s="10">
         <v>103</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0</v>
       </c>
       <c r="G11" s="10">
         <v>207</v>
       </c>
       <c r="H11">
-        <f>ROUND(((B11+D11)-(A11+C11))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B11+D11)-(A11+C11))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3216,17 +3237,17 @@
       <c r="B12" s="11">
         <v>40462</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0.69652777777777775</v>
       </c>
       <c r="E12" s="10">
         <v>103</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
+      <c r="F12" s="13">
+        <f>ROUNDDOWN(((B12+D12)-(A12+C12))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G12" s="10">
@@ -3246,17 +3267,17 @@
       <c r="B13" s="11">
         <v>40463</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0.375</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.63263888888888886</v>
       </c>
       <c r="E13" s="10">
         <v>103</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
+      <c r="F13" s="13">
+        <f>ROUNDDOWN(((B13+D13)-(A13+C13))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G13" s="10">
@@ -3276,18 +3297,18 @@
       <c r="B14" s="11">
         <v>40464</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>0.44513888888888892</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.69305555555555554</v>
       </c>
       <c r="E14" s="10">
         <v>103</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F14" s="13">
+        <f>ROUNDDOWN(((B14+D14)-(A14+C14))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G14" s="10">
         <v>244</v>
@@ -3306,18 +3327,18 @@
       <c r="B15" s="11">
         <v>40465</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>0.63541666666666663</v>
       </c>
       <c r="E15" s="10">
         <v>103</v>
       </c>
-      <c r="F15" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F15" s="13">
+        <f>ROUNDDOWN(((B15+D15)-(A15+C15))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G15" s="10">
         <v>282</v>
@@ -3336,18 +3357,18 @@
       <c r="B16" s="11">
         <v>40466</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>0.3840277777777778</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>0.62569444444444444</v>
       </c>
       <c r="E16" s="10">
         <v>103</v>
       </c>
-      <c r="F16" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F16" s="13">
+        <f>ROUNDDOWN(((B16+D16)-(A16+C16))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G16" s="10">
         <v>260</v>
@@ -3366,24 +3387,24 @@
       <c r="B17" s="11">
         <v>40467</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>0.45</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>0.68958333333333333</v>
       </c>
       <c r="E17" s="10">
         <v>103</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17" s="10">
         <v>159</v>
       </c>
       <c r="H17">
-        <f>ROUND(((B17+D17)-(A17+C17))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B17+D17)-(A17+C17))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3396,24 +3417,24 @@
       <c r="B18" s="11">
         <v>40468</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>0.44861111111111113</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>0.69444444444444453</v>
       </c>
       <c r="E18" s="10">
         <v>103</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
       <c r="G18" s="10">
         <v>238</v>
       </c>
       <c r="H18">
-        <f>ROUND(((B18+D18)-(A18+C18))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B18+D18)-(A18+C18))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3426,18 +3447,18 @@
       <c r="B19" s="11">
         <v>40469</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>0.66666666666666663</v>
       </c>
       <c r="E19" s="10">
         <v>103</v>
       </c>
-      <c r="F19" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F19" s="13">
+        <f>ROUNDDOWN(((B19+D19)-(A19+C19))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G19" s="10">
         <v>199</v>
@@ -3456,18 +3477,18 @@
       <c r="B20" s="11">
         <v>40470</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>0.45208333333333334</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>0.68958333333333333</v>
       </c>
       <c r="E20" s="10">
         <v>103</v>
       </c>
-      <c r="F20" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F20" s="13">
+        <f>ROUNDDOWN(((B20+D20)-(A20+C20))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G20" s="10">
         <v>258</v>
@@ -3486,17 +3507,17 @@
       <c r="B21" s="11">
         <v>40471</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>0.68680555555555556</v>
       </c>
       <c r="E21" s="10">
         <v>103</v>
       </c>
-      <c r="F21" s="14">
-        <f t="shared" si="0"/>
+      <c r="F21" s="13">
+        <f>ROUNDDOWN(((B21+D21)-(A21+C21))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G21" s="10">
@@ -3516,17 +3537,17 @@
       <c r="B22" s="11">
         <v>40472</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>0.69097222222222221</v>
       </c>
       <c r="E22" s="10">
         <v>103</v>
       </c>
-      <c r="F22" s="14">
-        <f t="shared" si="0"/>
+      <c r="F22" s="13">
+        <f>ROUNDDOWN(((B22+D22)-(A22+C22))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G22" s="10">
@@ -3546,17 +3567,17 @@
       <c r="B23" s="11">
         <v>40473</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.45694444444444443</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>0.6777777777777777</v>
       </c>
       <c r="E23" s="10">
         <v>103</v>
       </c>
-      <c r="F23" s="14">
-        <f t="shared" si="0"/>
+      <c r="F23" s="13">
+        <f>ROUNDDOWN(((B23+D23)-(A23+C23))*24,0)</f>
         <v>5</v>
       </c>
       <c r="G23" s="10">
@@ -3576,24 +3597,24 @@
       <c r="B24" s="11">
         <v>40474</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>0.3833333333333333</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>0.63194444444444442</v>
       </c>
       <c r="E24" s="10">
         <v>103</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>0</v>
       </c>
       <c r="G24" s="10">
         <v>228</v>
       </c>
       <c r="H24">
-        <f>ROUND(((B24+D24)-(A24+C24))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B24+D24)-(A24+C24))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -3606,23 +3627,23 @@
       <c r="B25" s="11">
         <v>40475</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>0.67986111111111114</v>
       </c>
       <c r="E25" s="10">
         <v>103</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>0</v>
       </c>
       <c r="G25" s="10">
         <v>247</v>
       </c>
       <c r="H25">
-        <f>ROUND(((B25+D25)-(A25+C25))*24,0)</f>
+        <f>ROUNDDOWN(((B25+D25)-(A25+C25))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I25">
@@ -3636,18 +3657,18 @@
       <c r="B26" s="11">
         <v>40476</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>0.38472222222222219</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>0.65694444444444444</v>
       </c>
       <c r="E26" s="10">
         <v>103</v>
       </c>
-      <c r="F26" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="F26" s="13">
+        <f>ROUNDDOWN(((B26+D26)-(A26+C26))*24,0)</f>
+        <v>6</v>
       </c>
       <c r="G26" s="10">
         <v>205</v>
@@ -3666,18 +3687,18 @@
       <c r="B27" s="11">
         <v>40477</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>0.41319444444444442</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>0.65277777777777779</v>
       </c>
       <c r="E27" s="10">
         <v>103</v>
       </c>
-      <c r="F27" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F27" s="13">
+        <f>ROUNDDOWN(((B27+D27)-(A27+C27))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G27" s="10">
         <v>164</v>
@@ -3696,18 +3717,18 @@
       <c r="B28" s="11">
         <v>40478</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>0.67152777777777783</v>
       </c>
       <c r="E28" s="10">
         <v>103</v>
       </c>
-      <c r="F28" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F28" s="13">
+        <f>ROUNDDOWN(((B28+D28)-(A28+C28))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G28" s="10">
         <v>200</v>
@@ -3726,18 +3747,18 @@
       <c r="B29" s="11">
         <v>40479</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>0.68680555555555556</v>
       </c>
       <c r="E29" s="10">
         <v>103</v>
       </c>
-      <c r="F29" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F29" s="13">
+        <f>ROUNDDOWN(((B29+D29)-(A29+C29))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G29" s="10">
         <v>187</v>
@@ -3756,18 +3777,18 @@
       <c r="B30" s="11">
         <v>40480</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>0.62916666666666665</v>
       </c>
       <c r="E30" s="10">
         <v>103</v>
       </c>
-      <c r="F30" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F30" s="13">
+        <f>ROUNDDOWN(((B30+D30)-(A30+C30))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G30" s="10">
         <v>233</v>
@@ -3786,23 +3807,23 @@
       <c r="B31" s="11">
         <v>40481</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>0.45416666666666666</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>0.67083333333333339</v>
       </c>
       <c r="E31" s="10">
         <v>103</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>0</v>
       </c>
       <c r="G31" s="10">
         <v>205</v>
       </c>
       <c r="H31">
-        <f>ROUND(((B31+D31)-(A31+C31))*24,0)</f>
+        <f>ROUNDDOWN(((B31+D31)-(A31+C31))*24,0)</f>
         <v>5</v>
       </c>
       <c r="I31">
@@ -3816,34 +3837,34 @@
       <c r="B32" s="11">
         <v>40482</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>0.66875000000000007</v>
       </c>
       <c r="E32" s="10">
         <v>103</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>160</v>
       </c>
       <c r="H32">
-        <f>ROUND(((B32+D32)-(A32+C32))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B32+D32)-(A32+C32))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>40452</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>40452</v>
       </c>
       <c r="C33" s="9">
@@ -3855,9 +3876,9 @@
       <c r="E33" s="10">
         <v>104</v>
       </c>
-      <c r="F33" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F33" s="13">
+        <f>ROUNDDOWN(((B33+D33)-(A33+C33))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G33" s="10">
         <v>232</v>
@@ -3870,10 +3891,10 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>40453</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>40453</v>
       </c>
       <c r="C34" s="9">
@@ -3885,14 +3906,14 @@
       <c r="E34" s="10">
         <v>104</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <v>0</v>
       </c>
       <c r="G34" s="10">
         <v>195</v>
       </c>
       <c r="H34">
-        <f>ROUND(((B34+D34)-(A34+C34))*24,0)</f>
+        <f>ROUNDDOWN(((B34+D34)-(A34+C34))*24,0)</f>
         <v>5</v>
       </c>
       <c r="I34">
@@ -3900,10 +3921,10 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>40454</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>40454</v>
       </c>
       <c r="C35" s="9">
@@ -3915,25 +3936,25 @@
       <c r="E35" s="10">
         <v>104</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>0</v>
       </c>
       <c r="G35" s="10">
         <v>204</v>
       </c>
       <c r="H35">
-        <f>ROUND(((B35+D35)-(A35+C35))*24,0)</f>
-        <v>7</v>
+        <f>ROUNDDOWN(((B35+D35)-(A35+C35))*24,0)</f>
+        <v>6</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>40455</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>40455</v>
       </c>
       <c r="C36" s="9">
@@ -3945,9 +3966,9 @@
       <c r="E36" s="10">
         <v>104</v>
       </c>
-      <c r="F36" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F36" s="13">
+        <f>ROUNDDOWN(((B36+D36)-(A36+C36))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G36" s="10">
         <v>232</v>
@@ -3960,10 +3981,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>40456</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>40456</v>
       </c>
       <c r="C37" s="9">
@@ -3975,9 +3996,9 @@
       <c r="E37" s="10">
         <v>104</v>
       </c>
-      <c r="F37" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F37" s="13">
+        <f>ROUNDDOWN(((B37+D37)-(A37+C37))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G37" s="10">
         <v>182</v>
@@ -3990,10 +4011,10 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <v>40457</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>40457</v>
       </c>
       <c r="C38" s="9">
@@ -4005,9 +4026,9 @@
       <c r="E38" s="10">
         <v>104</v>
       </c>
-      <c r="F38" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F38" s="13">
+        <f>ROUNDDOWN(((B38+D38)-(A38+C38))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G38" s="10">
         <v>221</v>
@@ -4020,10 +4041,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>40458</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>40458</v>
       </c>
       <c r="C39" s="9">
@@ -4035,9 +4056,9 @@
       <c r="E39" s="10">
         <v>104</v>
       </c>
-      <c r="F39" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F39" s="13">
+        <f>ROUNDDOWN(((B39+D39)-(A39+C39))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G39" s="10">
         <v>216</v>
@@ -4050,10 +4071,10 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>40459</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>40459</v>
       </c>
       <c r="C40" s="9">
@@ -4065,9 +4086,9 @@
       <c r="E40" s="10">
         <v>104</v>
       </c>
-      <c r="F40" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="F40" s="13">
+        <f>ROUNDDOWN(((B40+D40)-(A40+C40))*24,0)</f>
+        <v>6</v>
       </c>
       <c r="G40" s="10">
         <v>175</v>
@@ -4080,10 +4101,10 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <v>40460</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>40460</v>
       </c>
       <c r="C41" s="9">
@@ -4095,14 +4116,14 @@
       <c r="E41" s="10">
         <v>104</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41" s="10">
         <v>248</v>
       </c>
       <c r="H41">
-        <f>ROUND(((B41+D41)-(A41+C41))*24,0)</f>
+        <f>ROUNDDOWN(((B41+D41)-(A41+C41))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I41">
@@ -4110,10 +4131,10 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>40461</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>40461</v>
       </c>
       <c r="C42" s="9">
@@ -4125,14 +4146,14 @@
       <c r="E42" s="10">
         <v>104</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>0</v>
       </c>
       <c r="G42" s="10">
         <v>286</v>
       </c>
       <c r="H42">
-        <f>ROUND(((B42+D42)-(A42+C42))*24,0)</f>
+        <f>ROUNDDOWN(((B42+D42)-(A42+C42))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I42">
@@ -4140,10 +4161,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <v>40462</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>40462</v>
       </c>
       <c r="C43" s="9">
@@ -4155,9 +4176,9 @@
       <c r="E43" s="10">
         <v>104</v>
       </c>
-      <c r="F43" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F43" s="13">
+        <f>ROUNDDOWN(((B43+D43)-(A43+C43))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G43" s="10">
         <v>250</v>
@@ -4170,10 +4191,10 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <v>40463</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>40463</v>
       </c>
       <c r="C44" s="9">
@@ -4185,8 +4206,8 @@
       <c r="E44" s="10">
         <v>104</v>
       </c>
-      <c r="F44" s="14">
-        <f t="shared" si="0"/>
+      <c r="F44" s="13">
+        <f>ROUNDDOWN(((B44+D44)-(A44+C44))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G44" s="10">
@@ -4200,10 +4221,10 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>40464</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>40464</v>
       </c>
       <c r="C45" s="9">
@@ -4215,9 +4236,9 @@
       <c r="E45" s="10">
         <v>104</v>
       </c>
-      <c r="F45" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F45" s="13">
+        <f>ROUNDDOWN(((B45+D45)-(A45+C45))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G45" s="10">
         <v>216</v>
@@ -4230,10 +4251,10 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <v>40465</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>40465</v>
       </c>
       <c r="C46" s="9">
@@ -4245,9 +4266,9 @@
       <c r="E46" s="10">
         <v>104</v>
       </c>
-      <c r="F46" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F46" s="13">
+        <f>ROUNDDOWN(((B46+D46)-(A46+C46))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G46" s="10">
         <v>244</v>
@@ -4260,10 +4281,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>40466</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <v>40466</v>
       </c>
       <c r="C47" s="9">
@@ -4275,9 +4296,9 @@
       <c r="E47" s="10">
         <v>104</v>
       </c>
-      <c r="F47" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F47" s="13">
+        <f>ROUNDDOWN(((B47+D47)-(A47+C47))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G47" s="10">
         <v>242</v>
@@ -4290,10 +4311,10 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>40467</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>40467</v>
       </c>
       <c r="C48" s="9">
@@ -4305,25 +4326,25 @@
       <c r="E48" s="10">
         <v>104</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="13">
         <v>0</v>
       </c>
       <c r="G48" s="10">
         <v>186</v>
       </c>
       <c r="H48">
-        <f>ROUND(((B48+D48)-(A48+C48))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B48+D48)-(A48+C48))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>40468</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>40468</v>
       </c>
       <c r="C49" s="9">
@@ -4335,14 +4356,14 @@
       <c r="E49" s="10">
         <v>104</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
         <v>0</v>
       </c>
       <c r="G49" s="10">
         <v>258</v>
       </c>
       <c r="H49">
-        <f>ROUND(((B49+D49)-(A49+C49))*24,0)</f>
+        <f>ROUNDDOWN(((B49+D49)-(A49+C49))*24,0)</f>
         <v>5</v>
       </c>
       <c r="I49">
@@ -4350,10 +4371,10 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <v>40469</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <v>40469</v>
       </c>
       <c r="C50" s="9">
@@ -4365,9 +4386,9 @@
       <c r="E50" s="10">
         <v>104</v>
       </c>
-      <c r="F50" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F50" s="13">
+        <f>ROUNDDOWN(((B50+D50)-(A50+C50))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G50" s="10">
         <v>228</v>
@@ -4380,10 +4401,10 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <v>40470</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>40470</v>
       </c>
       <c r="C51" s="9">
@@ -4395,8 +4416,8 @@
       <c r="E51" s="10">
         <v>104</v>
       </c>
-      <c r="F51" s="14">
-        <f t="shared" si="0"/>
+      <c r="F51" s="13">
+        <f>ROUNDDOWN(((B51+D51)-(A51+C51))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G51" s="10">
@@ -4410,10 +4431,10 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="15">
+      <c r="A52" s="14">
         <v>40471</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>40471</v>
       </c>
       <c r="C52" s="9">
@@ -4425,9 +4446,9 @@
       <c r="E52" s="10">
         <v>104</v>
       </c>
-      <c r="F52" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F52" s="13">
+        <f>ROUNDDOWN(((B52+D52)-(A52+C52))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G52" s="10">
         <v>257</v>
@@ -4440,10 +4461,10 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <v>40472</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>40472</v>
       </c>
       <c r="C53" s="9">
@@ -4455,8 +4476,8 @@
       <c r="E53" s="10">
         <v>104</v>
       </c>
-      <c r="F53" s="14">
-        <f t="shared" si="0"/>
+      <c r="F53" s="13">
+        <f>ROUNDDOWN(((B53+D53)-(A53+C53))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G53" s="10">
@@ -4470,10 +4491,10 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="15">
+      <c r="A54" s="14">
         <v>40473</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>40473</v>
       </c>
       <c r="C54" s="9">
@@ -4485,8 +4506,8 @@
       <c r="E54" s="10">
         <v>104</v>
       </c>
-      <c r="F54" s="14">
-        <f t="shared" si="0"/>
+      <c r="F54" s="13">
+        <f>ROUNDDOWN(((B54+D54)-(A54+C54))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G54" s="10">
@@ -4500,10 +4521,10 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <v>40474</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>40474</v>
       </c>
       <c r="C55" s="9">
@@ -4515,14 +4536,14 @@
       <c r="E55" s="10">
         <v>104</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="13">
         <v>0</v>
       </c>
       <c r="G55" s="10">
         <v>232</v>
       </c>
       <c r="H55">
-        <f>ROUND(((B55+D55)-(A55+C55))*24,0)</f>
+        <f>ROUNDDOWN(((B55+D55)-(A55+C55))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I55">
@@ -4530,10 +4551,10 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="15">
+      <c r="A56" s="14">
         <v>40475</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>40475</v>
       </c>
       <c r="C56" s="9">
@@ -4545,14 +4566,14 @@
       <c r="E56" s="10">
         <v>104</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="13">
         <v>0</v>
       </c>
       <c r="G56" s="10">
         <v>181</v>
       </c>
       <c r="H56">
-        <f>ROUND(((B56+D56)-(A56+C56))*24,0)</f>
+        <f>ROUNDDOWN(((B56+D56)-(A56+C56))*24,0)</f>
         <v>5</v>
       </c>
       <c r="I56">
@@ -4560,10 +4581,10 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <v>40476</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>40476</v>
       </c>
       <c r="C57" s="9">
@@ -4575,8 +4596,8 @@
       <c r="E57" s="10">
         <v>104</v>
       </c>
-      <c r="F57" s="14">
-        <f t="shared" si="0"/>
+      <c r="F57" s="13">
+        <f>ROUNDDOWN(((B57+D57)-(A57+C57))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G57" s="10">
@@ -4590,10 +4611,10 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="15">
+      <c r="A58" s="14">
         <v>40477</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <v>40477</v>
       </c>
       <c r="C58" s="9">
@@ -4605,8 +4626,8 @@
       <c r="E58" s="10">
         <v>104</v>
       </c>
-      <c r="F58" s="14">
-        <f t="shared" si="0"/>
+      <c r="F58" s="13">
+        <f>ROUNDDOWN(((B58+D58)-(A58+C58))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G58" s="10">
@@ -4620,10 +4641,10 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <v>40478</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>40478</v>
       </c>
       <c r="C59" s="9">
@@ -4635,8 +4656,8 @@
       <c r="E59" s="10">
         <v>104</v>
       </c>
-      <c r="F59" s="14">
-        <f t="shared" si="0"/>
+      <c r="F59" s="13">
+        <f>ROUNDDOWN(((B59+D59)-(A59+C59))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G59" s="10">
@@ -4650,10 +4671,10 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="15">
+      <c r="A60" s="14">
         <v>40479</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <v>40479</v>
       </c>
       <c r="C60" s="9">
@@ -4665,8 +4686,8 @@
       <c r="E60" s="10">
         <v>104</v>
       </c>
-      <c r="F60" s="14">
-        <f t="shared" si="0"/>
+      <c r="F60" s="13">
+        <f>ROUNDDOWN(((B60+D60)-(A60+C60))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G60" s="10">
@@ -4680,10 +4701,10 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="15">
+      <c r="A61" s="14">
         <v>40480</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>40480</v>
       </c>
       <c r="C61" s="9">
@@ -4695,8 +4716,8 @@
       <c r="E61" s="10">
         <v>104</v>
       </c>
-      <c r="F61" s="14">
-        <f t="shared" si="0"/>
+      <c r="F61" s="13">
+        <f>ROUNDDOWN(((B61+D61)-(A61+C61))*24,0)</f>
         <v>5</v>
       </c>
       <c r="G61" s="10">
@@ -4710,10 +4731,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="15">
+      <c r="A62" s="14">
         <v>40481</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="14">
         <v>40481</v>
       </c>
       <c r="C62" s="9">
@@ -4725,25 +4746,25 @@
       <c r="E62" s="10">
         <v>104</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="13">
         <v>0</v>
       </c>
       <c r="G62" s="10">
         <v>198</v>
       </c>
       <c r="H62">
-        <f>ROUND(((B62+D62)-(A62+C62))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B62+D62)-(A62+C62))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="15">
+      <c r="A63" s="14">
         <v>40482</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="14">
         <v>40482</v>
       </c>
       <c r="C63" s="9">
@@ -4755,25 +4776,25 @@
       <c r="E63" s="10">
         <v>104</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="13">
         <v>0</v>
       </c>
       <c r="G63" s="10">
         <v>222</v>
       </c>
       <c r="H63">
-        <f>ROUND(((B63+D63)-(A63+C63))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B63+D63)-(A63+C63))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="15">
+      <c r="A64" s="14">
         <v>40452</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="14">
         <v>40452</v>
       </c>
       <c r="C64" s="9">
@@ -4785,8 +4806,8 @@
       <c r="E64" s="10">
         <v>105</v>
       </c>
-      <c r="F64" s="14">
-        <f t="shared" si="0"/>
+      <c r="F64" s="13">
+        <f>ROUNDDOWN(((B64+D64)-(A64+C64))*24,0)</f>
         <v>5</v>
       </c>
       <c r="G64" s="10">
@@ -4800,10 +4821,10 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="15">
+      <c r="A65" s="14">
         <v>40453</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="14">
         <v>40453</v>
       </c>
       <c r="C65" s="9">
@@ -4815,14 +4836,14 @@
       <c r="E65" s="10">
         <v>105</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="13">
         <v>0</v>
       </c>
       <c r="G65" s="10">
         <v>255</v>
       </c>
       <c r="H65">
-        <f>ROUND(((B65+D65)-(A65+C65))*24,0)</f>
+        <f>ROUNDDOWN(((B65+D65)-(A65+C65))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I65">
@@ -4830,10 +4851,10 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="15">
+      <c r="A66" s="14">
         <v>40454</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <v>40454</v>
       </c>
       <c r="C66" s="9">
@@ -4845,14 +4866,14 @@
       <c r="E66" s="10">
         <v>105</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="13">
         <v>0</v>
       </c>
       <c r="G66" s="10">
         <v>256</v>
       </c>
       <c r="H66">
-        <f>ROUND(((B66+D66)-(A66+C66))*24,0)</f>
+        <f>ROUNDDOWN(((B66+D66)-(A66+C66))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I66">
@@ -4860,10 +4881,10 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="15">
+      <c r="A67" s="14">
         <v>40455</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <v>40455</v>
       </c>
       <c r="C67" s="9">
@@ -4875,8 +4896,8 @@
       <c r="E67" s="10">
         <v>105</v>
       </c>
-      <c r="F67" s="14">
-        <f t="shared" ref="F67:F86" si="1">ROUND(((B67+D67)-(A67+C67))*24,0)</f>
+      <c r="F67" s="13">
+        <f>ROUNDDOWN(((B67+D67)-(A67+C67))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G67" s="10">
@@ -4890,10 +4911,10 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="15">
+      <c r="A68" s="14">
         <v>40456</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="14">
         <v>40456</v>
       </c>
       <c r="C68" s="9">
@@ -4905,8 +4926,8 @@
       <c r="E68" s="10">
         <v>105</v>
       </c>
-      <c r="F68" s="14">
-        <f t="shared" si="1"/>
+      <c r="F68" s="13">
+        <f>ROUNDDOWN(((B68+D68)-(A68+C68))*24,0)</f>
         <v>5</v>
       </c>
       <c r="G68" s="10">
@@ -4920,10 +4941,10 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="15">
+      <c r="A69" s="14">
         <v>40457</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="14">
         <v>40457</v>
       </c>
       <c r="C69" s="9">
@@ -4935,9 +4956,9 @@
       <c r="E69" s="10">
         <v>105</v>
       </c>
-      <c r="F69" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="F69" s="13">
+        <f>ROUNDDOWN(((B69+D69)-(A69+C69))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G69" s="10">
         <v>257</v>
@@ -4950,10 +4971,10 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="15">
+      <c r="A70" s="14">
         <v>40458</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="14">
         <v>40458</v>
       </c>
       <c r="C70" s="9">
@@ -4965,9 +4986,9 @@
       <c r="E70" s="10">
         <v>105</v>
       </c>
-      <c r="F70" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="F70" s="13">
+        <f>ROUNDDOWN(((B70+D70)-(A70+C70))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G70" s="10">
         <v>225</v>
@@ -4980,10 +5001,10 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="15">
+      <c r="A71" s="14">
         <v>40459</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="14">
         <v>40459</v>
       </c>
       <c r="C71" s="9">
@@ -4995,9 +5016,9 @@
       <c r="E71" s="10">
         <v>105</v>
       </c>
-      <c r="F71" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="F71" s="13">
+        <f>ROUNDDOWN(((B71+D71)-(A71+C71))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G71" s="10">
         <v>297</v>
@@ -5010,10 +5031,10 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="15">
+      <c r="A72" s="14">
         <v>40460</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <v>40460</v>
       </c>
       <c r="C72" s="9">
@@ -5025,25 +5046,25 @@
       <c r="E72" s="10">
         <v>105</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="13">
         <v>0</v>
       </c>
       <c r="G72" s="10">
         <v>238</v>
       </c>
       <c r="H72">
-        <f>ROUND(((B72+D72)-(A72+C72))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B72+D72)-(A72+C72))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="15">
+      <c r="A73" s="14">
         <v>40461</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="14">
         <v>40461</v>
       </c>
       <c r="C73" s="9">
@@ -5055,14 +5076,14 @@
       <c r="E73" s="10">
         <v>105</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="13">
         <v>0</v>
       </c>
       <c r="G73" s="10">
         <v>163</v>
       </c>
       <c r="H73">
-        <f>ROUND(((B73+D73)-(A73+C73))*24,0)</f>
+        <f>ROUNDDOWN(((B73+D73)-(A73+C73))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I73">
@@ -5070,10 +5091,10 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="15">
+      <c r="A74" s="14">
         <v>40462</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="14">
         <v>40462</v>
       </c>
       <c r="C74" s="9">
@@ -5085,8 +5106,8 @@
       <c r="E74" s="10">
         <v>105</v>
       </c>
-      <c r="F74" s="14">
-        <f t="shared" si="1"/>
+      <c r="F74" s="13">
+        <f>ROUNDDOWN(((B74+D74)-(A74+C74))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G74" s="10">
@@ -5100,10 +5121,10 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="15">
+      <c r="A75" s="14">
         <v>40463</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="14">
         <v>40463</v>
       </c>
       <c r="C75" s="9">
@@ -5115,8 +5136,8 @@
       <c r="E75" s="10">
         <v>105</v>
       </c>
-      <c r="F75" s="14">
-        <f t="shared" si="1"/>
+      <c r="F75" s="13">
+        <f>ROUNDDOWN(((B75+D75)-(A75+C75))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G75" s="10">
@@ -5130,10 +5151,10 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="15">
+      <c r="A76" s="14">
         <v>40464</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="14">
         <v>40464</v>
       </c>
       <c r="C76" s="9">
@@ -5145,8 +5166,8 @@
       <c r="E76" s="10">
         <v>105</v>
       </c>
-      <c r="F76" s="14">
-        <f t="shared" si="1"/>
+      <c r="F76" s="13">
+        <f>ROUNDDOWN(((B76+D76)-(A76+C76))*24,0)</f>
         <v>5</v>
       </c>
       <c r="G76" s="10">
@@ -5160,10 +5181,10 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="15">
+      <c r="A77" s="14">
         <v>40465</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="14">
         <v>40465</v>
       </c>
       <c r="C77" s="9">
@@ -5175,9 +5196,9 @@
       <c r="E77" s="10">
         <v>105</v>
       </c>
-      <c r="F77" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="F77" s="13">
+        <f>ROUNDDOWN(((B77+D77)-(A77+C77))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G77" s="10">
         <v>209</v>
@@ -5190,10 +5211,10 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="15">
+      <c r="A78" s="14">
         <v>40466</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B78" s="14">
         <v>40466</v>
       </c>
       <c r="C78" s="9">
@@ -5205,8 +5226,8 @@
       <c r="E78" s="10">
         <v>105</v>
       </c>
-      <c r="F78" s="14">
-        <f t="shared" si="1"/>
+      <c r="F78" s="13">
+        <f>ROUNDDOWN(((B78+D78)-(A78+C78))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G78" s="10">
@@ -5220,10 +5241,10 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="15">
+      <c r="A79" s="14">
         <v>40467</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="14">
         <v>40467</v>
       </c>
       <c r="C79" s="9">
@@ -5235,14 +5256,14 @@
       <c r="E79" s="10">
         <v>105</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="13">
         <v>0</v>
       </c>
       <c r="G79" s="10">
         <v>145</v>
       </c>
       <c r="H79">
-        <f>ROUND(((B79+D79)-(A79+C79))*24,0)</f>
+        <f>ROUNDDOWN(((B79+D79)-(A79+C79))*24,0)</f>
         <v>5</v>
       </c>
       <c r="I79">
@@ -5250,10 +5271,10 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="15">
+      <c r="A80" s="14">
         <v>40468</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="14">
         <v>40468</v>
       </c>
       <c r="C80" s="9">
@@ -5265,14 +5286,14 @@
       <c r="E80" s="10">
         <v>105</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="13">
         <v>0</v>
       </c>
       <c r="G80" s="10">
         <v>189</v>
       </c>
       <c r="H80">
-        <f>ROUND(((B80+D80)-(A80+C80))*24,0)</f>
+        <f>ROUNDDOWN(((B80+D80)-(A80+C80))*24,0)</f>
         <v>6</v>
       </c>
       <c r="I80">
@@ -5280,10 +5301,10 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="15">
+      <c r="A81" s="14">
         <v>40469</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="14">
         <v>40469</v>
       </c>
       <c r="C81" s="9">
@@ -5295,8 +5316,8 @@
       <c r="E81" s="10">
         <v>105</v>
       </c>
-      <c r="F81" s="14">
-        <f t="shared" si="1"/>
+      <c r="F81" s="13">
+        <f>ROUNDDOWN(((B81+D81)-(A81+C81))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G81" s="10">
@@ -5310,10 +5331,10 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="15">
+      <c r="A82" s="14">
         <v>40470</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="14">
         <v>40470</v>
       </c>
       <c r="C82" s="9">
@@ -5325,8 +5346,8 @@
       <c r="E82" s="10">
         <v>105</v>
       </c>
-      <c r="F82" s="14">
-        <f t="shared" si="1"/>
+      <c r="F82" s="13">
+        <f>ROUNDDOWN(((B82+D82)-(A82+C82))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G82" s="10">
@@ -5340,10 +5361,10 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="15">
+      <c r="A83" s="14">
         <v>40471</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="14">
         <v>40471</v>
       </c>
       <c r="C83" s="9">
@@ -5355,9 +5376,9 @@
       <c r="E83" s="10">
         <v>105</v>
       </c>
-      <c r="F83" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="F83" s="13">
+        <f>ROUNDDOWN(((B83+D83)-(A83+C83))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="G83" s="10">
         <v>242</v>
@@ -5370,10 +5391,10 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="15">
+      <c r="A84" s="14">
         <v>40472</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="14">
         <v>40472</v>
       </c>
       <c r="C84" s="9">
@@ -5385,8 +5406,8 @@
       <c r="E84" s="10">
         <v>105</v>
       </c>
-      <c r="F84" s="14">
-        <f t="shared" si="1"/>
+      <c r="F84" s="13">
+        <f>ROUNDDOWN(((B84+D84)-(A84+C84))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G84" s="10">
@@ -5400,10 +5421,10 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="15">
+      <c r="A85" s="14">
         <v>40473</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="14">
         <v>40473</v>
       </c>
       <c r="C85" s="9">
@@ -5415,8 +5436,8 @@
       <c r="E85" s="10">
         <v>105</v>
       </c>
-      <c r="F85" s="14">
-        <f t="shared" si="1"/>
+      <c r="F85" s="13">
+        <f>ROUNDDOWN(((B85+D85)-(A85+C85))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G85" s="10">
@@ -5430,10 +5451,10 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="15">
+      <c r="A86" s="14">
         <v>40474</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="14">
         <v>40474</v>
       </c>
       <c r="C86" s="9">
@@ -5445,474 +5466,1365 @@
       <c r="E86" s="10">
         <v>105</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="13">
         <v>0</v>
       </c>
       <c r="G86" s="10">
         <v>176</v>
       </c>
       <c r="H86">
-        <f>ROUND(((B86+D86)-(A86+C86))*24,0)</f>
-        <v>6</v>
+        <f>ROUNDDOWN(((B86+D86)-(A86+C86))*24,0)</f>
+        <v>5</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="F87" s="14"/>
+      <c r="A87" s="14">
+        <v>40475</v>
+      </c>
+      <c r="B87" s="14">
+        <v>40475</v>
+      </c>
+      <c r="C87" s="9">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="E87" s="10">
+        <v>105</v>
+      </c>
+      <c r="F87" s="13">
+        <v>0</v>
+      </c>
+      <c r="G87" s="10">
+        <v>250</v>
+      </c>
+      <c r="H87">
+        <f>ROUNDDOWN(((B87+D87)-(A87+C87))*24,0)</f>
+        <v>5</v>
+      </c>
       <c r="I87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="F88" s="14"/>
+      <c r="A88" s="14">
+        <v>40476</v>
+      </c>
+      <c r="B88" s="14">
+        <v>40476</v>
+      </c>
+      <c r="C88" s="9">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E88" s="10">
+        <v>105</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" ref="F86:F125" si="0">ROUNDDOWN(((B88+D88)-(A88+C88))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G88" s="10">
+        <v>218</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
       <c r="I88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="F89" s="14"/>
+      <c r="A89" s="14">
+        <v>40477</v>
+      </c>
+      <c r="B89" s="14">
+        <v>40477</v>
+      </c>
+      <c r="C89" s="9">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E89" s="10">
+        <v>105</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G89" s="10">
+        <v>191</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="F90" s="14"/>
+      <c r="A90" s="14">
+        <v>40478</v>
+      </c>
+      <c r="B90" s="14">
+        <v>40478</v>
+      </c>
+      <c r="C90" s="9">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="E90" s="10">
+        <v>105</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G90" s="10">
+        <v>173</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="F91" s="14"/>
+      <c r="A91" s="14">
+        <v>40479</v>
+      </c>
+      <c r="B91" s="14">
+        <v>40479</v>
+      </c>
+      <c r="C91" s="9">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E91" s="10">
+        <v>105</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G91" s="10">
+        <v>266</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="F92" s="14"/>
+      <c r="A92" s="14">
+        <v>40480</v>
+      </c>
+      <c r="B92" s="14">
+        <v>40480</v>
+      </c>
+      <c r="C92" s="9">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="D92" s="9">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E92" s="10">
+        <v>105</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G92" s="10">
+        <v>212</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="F93" s="14"/>
+      <c r="A93" s="14">
+        <v>40481</v>
+      </c>
+      <c r="B93" s="14">
+        <v>40481</v>
+      </c>
+      <c r="C93" s="9">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="E93" s="10">
+        <v>105</v>
+      </c>
+      <c r="F93" s="13">
+        <v>0</v>
+      </c>
+      <c r="G93" s="10">
+        <v>286</v>
+      </c>
+      <c r="H93">
+        <f>ROUNDDOWN(((B93+D93)-(A93+C93))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="F94" s="14"/>
+      <c r="A94" s="14">
+        <v>40482</v>
+      </c>
+      <c r="B94" s="14">
+        <v>40482</v>
+      </c>
+      <c r="C94" s="9">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="D94" s="9">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="E94" s="10">
+        <v>105</v>
+      </c>
+      <c r="F94" s="13">
+        <v>0</v>
+      </c>
+      <c r="G94" s="10">
+        <v>269</v>
+      </c>
+      <c r="H94">
+        <f>ROUNDDOWN(((B94+D94)-(A94+C94))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="F95" s="14"/>
+      <c r="A95" s="14">
+        <v>40452</v>
+      </c>
+      <c r="B95" s="14">
+        <v>40452</v>
+      </c>
+      <c r="C95" s="9">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="E95" s="10">
+        <v>106</v>
+      </c>
+      <c r="F95" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G95" s="10">
+        <v>223</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="F101" s="14"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="F103" s="14"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="F104" s="14"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="F106" s="14"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="F107" s="14"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="F108" s="14"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="F109" s="14"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="F110" s="14"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="F111" s="14"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="F112" s="14"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="F113" s="14"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="F114" s="14"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="F115" s="14"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="F116" s="14"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="F117" s="14"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="F118" s="14"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="F119" s="14"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="F120" s="14"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="F121" s="14"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="F122" s="14"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="F123" s="14"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="F124" s="14"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="F125" s="14"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="F126" s="14"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="F127" s="14"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="F128" s="14"/>
+      <c r="A96" s="14">
+        <v>40453</v>
+      </c>
+      <c r="B96" s="14">
+        <v>40453</v>
+      </c>
+      <c r="C96" s="9">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="E96" s="10">
+        <v>106</v>
+      </c>
+      <c r="F96" s="13">
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
+        <v>246</v>
+      </c>
+      <c r="H96">
+        <f>ROUNDDOWN(((B96+D96)-(A96+C96))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="14">
+        <v>40454</v>
+      </c>
+      <c r="B97" s="14">
+        <v>40454</v>
+      </c>
+      <c r="C97" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="E97" s="10">
+        <v>106</v>
+      </c>
+      <c r="F97" s="13">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>249</v>
+      </c>
+      <c r="H97">
+        <f>ROUNDDOWN(((B97+D97)-(A97+C97))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="14">
+        <v>40455</v>
+      </c>
+      <c r="B98" s="14">
+        <v>40455</v>
+      </c>
+      <c r="C98" s="9">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D98" s="9">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="E98" s="10">
+        <v>106</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G98" s="10">
+        <v>238</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="14">
+        <v>40456</v>
+      </c>
+      <c r="B99" s="14">
+        <v>40456</v>
+      </c>
+      <c r="C99" s="9">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="D99" s="9">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="E99" s="10">
+        <v>106</v>
+      </c>
+      <c r="F99" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G99" s="10">
+        <v>168</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="14">
+        <v>40457</v>
+      </c>
+      <c r="B100" s="14">
+        <v>40457</v>
+      </c>
+      <c r="C100" s="9">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="D100" s="9">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="E100" s="10">
+        <v>106</v>
+      </c>
+      <c r="F100" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G100" s="10">
+        <v>258</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="14">
+        <v>40458</v>
+      </c>
+      <c r="B101" s="14">
+        <v>40458</v>
+      </c>
+      <c r="C101" s="9">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="D101" s="9">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="E101" s="10">
+        <v>106</v>
+      </c>
+      <c r="F101" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G101" s="10">
+        <v>287</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="14">
+        <v>40459</v>
+      </c>
+      <c r="B102" s="14">
+        <v>40459</v>
+      </c>
+      <c r="C102" s="9">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="D102" s="9">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="E102" s="10">
+        <v>106</v>
+      </c>
+      <c r="F102" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G102" s="10">
+        <v>231</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="14">
+        <v>40460</v>
+      </c>
+      <c r="B103" s="14">
+        <v>40460</v>
+      </c>
+      <c r="C103" s="9">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E103" s="10">
+        <v>106</v>
+      </c>
+      <c r="F103" s="13">
+        <v>0</v>
+      </c>
+      <c r="G103" s="10">
+        <v>257</v>
+      </c>
+      <c r="H103">
+        <f>ROUNDDOWN(((B103+D103)-(A103+C103))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="14">
+        <v>40461</v>
+      </c>
+      <c r="B104" s="14">
+        <v>40461</v>
+      </c>
+      <c r="C104" s="9">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="E104" s="10">
+        <v>106</v>
+      </c>
+      <c r="F104" s="13">
+        <v>0</v>
+      </c>
+      <c r="G104" s="10">
+        <v>275</v>
+      </c>
+      <c r="H104">
+        <f>ROUNDDOWN(((B104+D104)-(A104+C104))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="14">
+        <v>40462</v>
+      </c>
+      <c r="B105" s="14">
+        <v>40462</v>
+      </c>
+      <c r="C105" s="9">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D105" s="9">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="E105" s="10">
+        <v>106</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G105" s="10">
+        <v>187</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="14">
+        <v>40463</v>
+      </c>
+      <c r="B106" s="14">
+        <v>40463</v>
+      </c>
+      <c r="C106" s="9">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E106" s="10">
+        <v>106</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G106" s="10">
+        <v>229</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="14">
+        <v>40464</v>
+      </c>
+      <c r="B107" s="14">
+        <v>40464</v>
+      </c>
+      <c r="C107" s="9">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="E107" s="10">
+        <v>106</v>
+      </c>
+      <c r="F107" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G107" s="10">
+        <v>210</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="14">
+        <v>40465</v>
+      </c>
+      <c r="B108" s="14">
+        <v>40465</v>
+      </c>
+      <c r="C108" s="9">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E108" s="10">
+        <v>106</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G108" s="10">
+        <v>294</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="14">
+        <v>40466</v>
+      </c>
+      <c r="B109" s="14">
+        <v>40466</v>
+      </c>
+      <c r="C109" s="9">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D109" s="9">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E109" s="10">
+        <v>106</v>
+      </c>
+      <c r="F109" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G109" s="10">
+        <v>251</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="14">
+        <v>40467</v>
+      </c>
+      <c r="B110" s="14">
+        <v>40467</v>
+      </c>
+      <c r="C110" s="9">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="D110" s="9">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="E110" s="10">
+        <v>106</v>
+      </c>
+      <c r="F110" s="13">
+        <v>0</v>
+      </c>
+      <c r="G110" s="10">
+        <v>218</v>
+      </c>
+      <c r="H110">
+        <f>ROUNDDOWN(((B110+D110)-(A110+C110))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="14">
+        <v>40468</v>
+      </c>
+      <c r="B111" s="14">
+        <v>40468</v>
+      </c>
+      <c r="C111" s="9">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E111" s="10">
+        <v>106</v>
+      </c>
+      <c r="F111" s="13">
+        <v>0</v>
+      </c>
+      <c r="G111" s="10">
+        <v>301</v>
+      </c>
+      <c r="H111">
+        <f>ROUNDDOWN(((B111+D111)-(A111+C111))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="14">
+        <v>40469</v>
+      </c>
+      <c r="B112" s="14">
+        <v>40469</v>
+      </c>
+      <c r="C112" s="9">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D112" s="9">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="E112" s="10">
+        <v>106</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G112" s="10">
+        <v>196</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="14">
+        <v>40470</v>
+      </c>
+      <c r="B113" s="14">
+        <v>40470</v>
+      </c>
+      <c r="C113" s="9">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D113" s="9">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E113" s="10">
+        <v>106</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G113" s="10">
+        <v>223</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="14">
+        <v>40471</v>
+      </c>
+      <c r="B114" s="14">
+        <v>40471</v>
+      </c>
+      <c r="C114" s="9">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="E114" s="10">
+        <v>106</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G114" s="10">
+        <v>268</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="14">
+        <v>40472</v>
+      </c>
+      <c r="B115" s="14">
+        <v>40472</v>
+      </c>
+      <c r="C115" s="9">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="D115" s="9">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E115" s="10">
+        <v>106</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G115" s="10">
+        <v>169</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="14">
+        <v>40473</v>
+      </c>
+      <c r="B116" s="14">
+        <v>40473</v>
+      </c>
+      <c r="C116" s="9">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="E116" s="10">
+        <v>106</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G116" s="10">
+        <v>209</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="14">
+        <v>40474</v>
+      </c>
+      <c r="B117" s="14">
+        <v>40474</v>
+      </c>
+      <c r="C117" s="9">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="D117" s="9">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="E117" s="10">
+        <v>106</v>
+      </c>
+      <c r="F117" s="13">
+        <v>0</v>
+      </c>
+      <c r="G117" s="10">
+        <v>280</v>
+      </c>
+      <c r="H117">
+        <f>ROUNDDOWN(((B117+D117)-(A117+C117))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="14">
+        <v>40475</v>
+      </c>
+      <c r="B118" s="14">
+        <v>40475</v>
+      </c>
+      <c r="C118" s="9">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="D118" s="9">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="E118" s="10">
+        <v>106</v>
+      </c>
+      <c r="F118" s="13">
+        <v>0</v>
+      </c>
+      <c r="G118" s="10">
+        <v>244</v>
+      </c>
+      <c r="H118">
+        <f>ROUNDDOWN(((B118+D118)-(A118+C118))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="14">
+        <v>40476</v>
+      </c>
+      <c r="B119" s="14">
+        <v>40476</v>
+      </c>
+      <c r="C119" s="9">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="D119" s="9">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="E119" s="10">
+        <v>106</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G119" s="10">
+        <v>247</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="14">
+        <v>40477</v>
+      </c>
+      <c r="B120" s="14">
+        <v>40477</v>
+      </c>
+      <c r="C120" s="9">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="D120" s="9">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="E120" s="10">
+        <v>106</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G120" s="10">
+        <v>240</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="14">
+        <v>40478</v>
+      </c>
+      <c r="B121" s="14">
+        <v>40478</v>
+      </c>
+      <c r="C121" s="9">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D121" s="9">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="E121" s="10">
+        <v>106</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G121" s="10">
+        <v>197</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="14">
+        <v>40479</v>
+      </c>
+      <c r="B122" s="14">
+        <v>40479</v>
+      </c>
+      <c r="C122" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D122" s="9">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="E122" s="10">
+        <v>106</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G122" s="10">
+        <v>238</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="14">
+        <v>40480</v>
+      </c>
+      <c r="B123" s="14">
+        <v>40480</v>
+      </c>
+      <c r="C123" s="9">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="D123" s="9">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E123" s="10">
+        <v>106</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G123" s="10">
+        <v>247</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="14">
+        <v>40481</v>
+      </c>
+      <c r="B124" s="14">
+        <v>40481</v>
+      </c>
+      <c r="C124" s="9">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D124" s="9">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="E124" s="10">
+        <v>106</v>
+      </c>
+      <c r="F124" s="13">
+        <v>0</v>
+      </c>
+      <c r="G124" s="10">
+        <v>220</v>
+      </c>
+      <c r="H124">
+        <f>ROUNDDOWN(((B124+D124)-(A124+C124))*24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="14">
+        <v>40482</v>
+      </c>
+      <c r="B125" s="14">
+        <v>40482</v>
+      </c>
+      <c r="C125" s="9">
+        <v>0.40625</v>
+      </c>
+      <c r="D125" s="9">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="E125" s="10">
+        <v>106</v>
+      </c>
+      <c r="F125" s="13">
+        <v>0</v>
+      </c>
+      <c r="G125" s="10">
+        <v>199</v>
+      </c>
+      <c r="H125">
+        <f>ROUNDDOWN(((B125+D125)-(A125+C125))*24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="F128" s="13"/>
     </row>
     <row r="129" spans="3:6">
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="F129" s="14"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="F129" s="13"/>
     </row>
     <row r="130" spans="3:6">
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="F130" s="14"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="F130" s="13"/>
     </row>
     <row r="131" spans="3:6">
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="F131" s="14"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="F131" s="13"/>
     </row>
     <row r="132" spans="3:6">
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="F132" s="14"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" spans="3:6">
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="F133" s="14"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="134" spans="3:6">
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="F134" s="14"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="135" spans="3:6">
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="F135" s="14"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="F135" s="13"/>
     </row>
     <row r="136" spans="3:6">
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="F136" s="14"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="F136" s="13"/>
     </row>
     <row r="137" spans="3:6">
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="F137" s="14"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="F137" s="13"/>
     </row>
     <row r="138" spans="3:6">
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="F138" s="14"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" spans="3:6">
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="F139" s="14"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="F139" s="13"/>
     </row>
     <row r="140" spans="3:6">
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="F140" s="14"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="F140" s="13"/>
     </row>
     <row r="141" spans="3:6">
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="F141" s="14"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="F141" s="13"/>
     </row>
     <row r="142" spans="3:6">
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="F142" s="14"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="F142" s="13"/>
     </row>
     <row r="143" spans="3:6">
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="F143" s="14"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="F143" s="13"/>
     </row>
     <row r="144" spans="3:6">
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="F144" s="14"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="F144" s="13"/>
     </row>
     <row r="145" spans="3:6">
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="F145" s="14"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="F145" s="13"/>
     </row>
     <row r="146" spans="3:6">
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="F146" s="14"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="F146" s="13"/>
     </row>
     <row r="147" spans="3:6">
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="F147" s="14"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="F147" s="13"/>
     </row>
     <row r="148" spans="3:6">
-      <c r="F148" s="14"/>
+      <c r="F148" s="13"/>
     </row>
     <row r="149" spans="3:6">
-      <c r="F149" s="14"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="150" spans="3:6">
-      <c r="F150" s="14"/>
+      <c r="F150" s="13"/>
     </row>
     <row r="151" spans="3:6">
-      <c r="F151" s="14"/>
+      <c r="F151" s="13"/>
     </row>
     <row r="152" spans="3:6">
-      <c r="F152" s="14"/>
+      <c r="F152" s="13"/>
     </row>
     <row r="153" spans="3:6">
-      <c r="F153" s="14"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="3:6">
-      <c r="F154" s="14"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" spans="3:6">
-      <c r="F155" s="14"/>
+      <c r="F155" s="13"/>
     </row>
     <row r="156" spans="3:6">
-      <c r="F156" s="14"/>
+      <c r="F156" s="13"/>
     </row>
     <row r="157" spans="3:6">
-      <c r="F157" s="14"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="3:6">
-      <c r="F158" s="14"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" spans="3:6">
-      <c r="F159" s="14"/>
+      <c r="F159" s="13"/>
     </row>
     <row r="160" spans="3:6">
-      <c r="F160" s="14"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="6:6">
-      <c r="F161" s="14"/>
+      <c r="F161" s="13"/>
     </row>
     <row r="162" spans="6:6">
-      <c r="F162" s="14"/>
+      <c r="F162" s="13"/>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="14"/>
+      <c r="F163" s="13"/>
     </row>
     <row r="164" spans="6:6">
-      <c r="F164" s="14"/>
+      <c r="F164" s="13"/>
     </row>
     <row r="165" spans="6:6">
-      <c r="F165" s="14"/>
+      <c r="F165" s="13"/>
     </row>
     <row r="166" spans="6:6">
-      <c r="F166" s="14"/>
+      <c r="F166" s="13"/>
     </row>
     <row r="167" spans="6:6">
-      <c r="F167" s="14"/>
+      <c r="F167" s="13"/>
     </row>
     <row r="168" spans="6:6">
-      <c r="F168" s="14"/>
+      <c r="F168" s="13"/>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="14"/>
+      <c r="F169" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5922,80 +6834,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <f>(SUMIF('Clarin-Datos'!F2:F32,"&gt;0",'Clarin-Datos'!I2:I32)*B2+SUM('Clarin-Datos'!H2:H32))</f>
-        <v>248</v>
-      </c>
-      <c r="D2" s="14">
+        <v>241</v>
+      </c>
+      <c r="D2" s="17">
         <f>C2*60-SUM('Clarin-Datos'!G2:G32)</f>
-        <v>7855</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <f>SUMIF('Clarin-Datos'!F33:F63,"&gt;0",'Clarin-Datos'!I33:I63)*B3+SUM('Clarin-Datos'!H33:H63)</f>
-        <v>247</v>
-      </c>
-      <c r="D3" s="14">
-        <f>C2*60-SUM('Clarin-Datos'!G33:G63)</f>
-        <v>7878</v>
+        <v>243</v>
+      </c>
+      <c r="D3" s="17">
+        <f>C3*60-SUM('Clarin-Datos'!G33:G63)</f>
+        <v>7578</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>9</v>
       </c>
-      <c r="C4">
-        <f>SUMIF('Clarin-Datos'!F64:F86,"&gt;0",'Clarin-Datos'!I64:I86)*B4+SUM('Clarin-Datos'!H64:H86)</f>
-        <v>185</v>
-      </c>
-      <c r="D4" s="14">
-        <f>C3*60-SUM('Clarin-Datos'!G64:G86)</f>
-        <v>9616</v>
+      <c r="C4" s="6">
+        <f>SUMIF('Clarin-Datos'!F64:F94,"&gt;0",'Clarin-Datos'!I64:I94)*B4+SUM('Clarin-Datos'!H64:H94)</f>
+        <v>245</v>
+      </c>
+      <c r="D4" s="17">
+        <f>C4*60-SUM('Clarin-Datos'!G64:G94)</f>
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <f>SUMIF('Clarin-Datos'!F95:F125,"&gt;0",'Clarin-Datos'!I95:I125)*B5+SUM('Clarin-Datos'!H95:H125)</f>
+        <v>244</v>
+      </c>
+      <c r="D5" s="17">
+        <f>C5*60-SUM('Clarin-Datos'!G95:G125)</f>
+        <v>7341</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Documentacion/UAT-METRICAS.xlsx
+++ b/trunk/Documentacion/UAT-METRICAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coca-Datos" sheetId="1" r:id="rId1"/>
@@ -142,19 +142,7 @@
     <t>possible points</t>
   </si>
   <si>
-    <t>Juan perez</t>
-  </si>
-  <si>
     <t>octubre</t>
-  </si>
-  <si>
-    <t>Jose Flores</t>
-  </si>
-  <si>
-    <t>Total Romualdo</t>
-  </si>
-  <si>
-    <t>Lorena García</t>
   </si>
   <si>
     <t>Total campaña Coca-Cola</t>
@@ -203,6 +191,18 @@
   </si>
   <si>
     <t>Augusto Arribalzaga</t>
+  </si>
+  <si>
+    <t>acoca1</t>
+  </si>
+  <si>
+    <t>acoca2</t>
+  </si>
+  <si>
+    <t>acoca3</t>
+  </si>
+  <si>
+    <t>Total scoca1</t>
   </si>
 </sst>
 </file>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="6">
         <f>SUM('Coca-Datos'!D2:D32)</f>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6">
         <f>SUM('Coca-Datos'!D33:D63)</f>
@@ -2825,7 +2825,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7">
         <f>SUM(C2:C3)</f>
@@ -2840,15 +2840,15 @@
         <v>1834</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8">
         <f>SUM('Coca-Datos'!D64:D94)</f>
@@ -2880,7 +2880,7 @@
         <v>2731</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2906,28 +2906,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5527,7 +5527,7 @@
         <v>105</v>
       </c>
       <c r="F88" s="13">
-        <f t="shared" ref="F86:F125" si="0">ROUNDDOWN(((B88+D88)-(A88+C88))*24,0)</f>
+        <f t="shared" ref="F88:F123" si="0">ROUNDDOWN(((B88+D88)-(A88+C88))*24,0)</f>
         <v>6</v>
       </c>
       <c r="G88" s="10">
@@ -6836,7 +6836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -6853,18 +6853,18 @@
         <v>36</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6">
         <v>9</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6">
         <v>9</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6">
         <v>9</v>

--- a/trunk/Documentacion/UAT-METRICAS.xlsx
+++ b/trunk/Documentacion/UAT-METRICAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coca-Datos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>DOCKET</t>
   </si>
@@ -163,16 +163,7 @@
     <t>agente</t>
   </si>
   <si>
-    <t>Pablo Cohen</t>
-  </si>
-  <si>
     <t>AUX_TM</t>
-  </si>
-  <si>
-    <t>Damian Molinari</t>
-  </si>
-  <si>
-    <t>Martin Colinas</t>
   </si>
   <si>
     <t>Tiempo logueado</t>
@@ -190,9 +181,6 @@
     <t>HS_PRODUCTIVAS</t>
   </si>
   <si>
-    <t>Augusto Arribalzaga</t>
-  </si>
-  <si>
     <t>acoca1</t>
   </si>
   <si>
@@ -204,6 +192,36 @@
   <si>
     <t>Total scoca1</t>
   </si>
+  <si>
+    <t>aclarin1</t>
+  </si>
+  <si>
+    <t>aclarin2</t>
+  </si>
+  <si>
+    <t>aclarin3</t>
+  </si>
+  <si>
+    <t>aclarin4</t>
+  </si>
+  <si>
+    <t>Total sclarin1</t>
+  </si>
+  <si>
+    <t>Total campaña Clarín</t>
+  </si>
+  <si>
+    <t>AVG_TALK_TM</t>
+  </si>
+  <si>
+    <t>AVAIL_TM</t>
+  </si>
+  <si>
+    <t>IN_CALL</t>
+  </si>
+  <si>
+    <t>QUANTITY_OF_CALLS</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +232,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -375,8 +393,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -748,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,6 +821,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2753,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2784,7 +2820,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -2804,7 +2840,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>41</v>
@@ -2840,12 +2876,12 @@
         <v>1834</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>41</v>
@@ -2890,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2902,9 +2938,11 @@
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2921,16 +2959,22 @@
         <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="11">
         <v>40452</v>
       </c>
@@ -2959,8 +3003,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>110</v>
+      </c>
+      <c r="K2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <v>40453</v>
       </c>
@@ -2989,8 +3039,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>188</v>
+      </c>
+      <c r="K3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="11">
         <v>40454</v>
       </c>
@@ -3019,8 +3075,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>191</v>
+      </c>
+      <c r="K4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <v>40455</v>
       </c>
@@ -3049,8 +3111,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>198</v>
+      </c>
+      <c r="K5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="11">
         <v>40456</v>
       </c>
@@ -3079,8 +3147,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>163</v>
+      </c>
+      <c r="K6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="11">
         <v>40457</v>
       </c>
@@ -3109,8 +3183,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>130</v>
+      </c>
+      <c r="K7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="11">
         <v>40458</v>
       </c>
@@ -3139,8 +3219,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>199</v>
+      </c>
+      <c r="K8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <v>40459</v>
       </c>
@@ -3169,8 +3255,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>144</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <v>40460</v>
       </c>
@@ -3199,8 +3291,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>104</v>
+      </c>
+      <c r="K10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="11">
         <v>40461</v>
       </c>
@@ -3229,8 +3327,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <v>40462</v>
       </c>
@@ -3259,8 +3363,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>120</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <v>40463</v>
       </c>
@@ -3289,8 +3399,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>157</v>
+      </c>
+      <c r="K13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <v>40464</v>
       </c>
@@ -3319,8 +3435,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>111</v>
+      </c>
+      <c r="K14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="11">
         <v>40465</v>
       </c>
@@ -3349,8 +3471,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>183</v>
+      </c>
+      <c r="K15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="11">
         <v>40466</v>
       </c>
@@ -3379,8 +3507,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>140</v>
+      </c>
+      <c r="K16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <v>40467</v>
       </c>
@@ -3409,8 +3543,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>105</v>
+      </c>
+      <c r="K17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="11">
         <v>40468</v>
       </c>
@@ -3439,8 +3579,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>113</v>
+      </c>
+      <c r="K18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <v>40469</v>
       </c>
@@ -3469,8 +3615,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>118</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="11">
         <v>40470</v>
       </c>
@@ -3499,8 +3651,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>152</v>
+      </c>
+      <c r="K20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="11">
         <v>40471</v>
       </c>
@@ -3529,8 +3687,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>188</v>
+      </c>
+      <c r="K21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="11">
         <v>40472</v>
       </c>
@@ -3559,8 +3723,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>132</v>
+      </c>
+      <c r="K22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="11">
         <v>40473</v>
       </c>
@@ -3589,8 +3759,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>143</v>
+      </c>
+      <c r="K23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="11">
         <v>40474</v>
       </c>
@@ -3619,8 +3795,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>138</v>
+      </c>
+      <c r="K24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="11">
         <v>40475</v>
       </c>
@@ -3649,8 +3831,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>158</v>
+      </c>
+      <c r="K25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="11">
         <v>40476</v>
       </c>
@@ -3679,8 +3867,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>124</v>
+      </c>
+      <c r="K26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="11">
         <v>40477</v>
       </c>
@@ -3709,8 +3903,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>116</v>
+      </c>
+      <c r="K27">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="11">
         <v>40478</v>
       </c>
@@ -3739,8 +3939,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>128</v>
+      </c>
+      <c r="K28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="11">
         <v>40479</v>
       </c>
@@ -3769,8 +3975,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>108</v>
+      </c>
+      <c r="K29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="11">
         <v>40480</v>
       </c>
@@ -3799,8 +4011,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>170</v>
+      </c>
+      <c r="K30">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="11">
         <v>40481</v>
       </c>
@@ -3829,8 +4047,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>119</v>
+      </c>
+      <c r="K31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="11">
         <v>40482</v>
       </c>
@@ -3859,8 +4083,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>125</v>
+      </c>
+      <c r="K32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="14">
         <v>40452</v>
       </c>
@@ -3889,8 +4119,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>138</v>
+      </c>
+      <c r="K33">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="14">
         <v>40453</v>
       </c>
@@ -3919,8 +4155,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>113</v>
+      </c>
+      <c r="K34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="14">
         <v>40454</v>
       </c>
@@ -3949,8 +4191,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>129</v>
+      </c>
+      <c r="K35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="14">
         <v>40455</v>
       </c>
@@ -3979,8 +4227,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>153</v>
+      </c>
+      <c r="K36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="14">
         <v>40456</v>
       </c>
@@ -4009,8 +4263,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="14">
         <v>40457</v>
       </c>
@@ -4039,8 +4299,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>172</v>
+      </c>
+      <c r="K38">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="14">
         <v>40458</v>
       </c>
@@ -4069,8 +4335,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>163</v>
+      </c>
+      <c r="K39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="14">
         <v>40459</v>
       </c>
@@ -4099,8 +4371,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>101</v>
+      </c>
+      <c r="K40">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="14">
         <v>40460</v>
       </c>
@@ -4129,8 +4407,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>195</v>
+      </c>
+      <c r="K41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="14">
         <v>40461</v>
       </c>
@@ -4159,8 +4443,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>191</v>
+      </c>
+      <c r="K42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="14">
         <v>40462</v>
       </c>
@@ -4189,8 +4479,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>155</v>
+      </c>
+      <c r="K43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="14">
         <v>40463</v>
       </c>
@@ -4219,8 +4515,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>158</v>
+      </c>
+      <c r="K44">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="14">
         <v>40464</v>
       </c>
@@ -4249,8 +4551,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="14">
         <v>40465</v>
       </c>
@@ -4279,8 +4587,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>185</v>
+      </c>
+      <c r="K46">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="14">
         <v>40466</v>
       </c>
@@ -4309,8 +4623,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>165</v>
+      </c>
+      <c r="K47">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="14">
         <v>40467</v>
       </c>
@@ -4339,8 +4659,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>107</v>
+      </c>
+      <c r="K48">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="14">
         <v>40468</v>
       </c>
@@ -4369,8 +4695,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>159</v>
+      </c>
+      <c r="K49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="14">
         <v>40469</v>
       </c>
@@ -4399,8 +4731,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>173</v>
+      </c>
+      <c r="K50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="14">
         <v>40470</v>
       </c>
@@ -4429,8 +4767,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>162</v>
+      </c>
+      <c r="K51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="14">
         <v>40471</v>
       </c>
@@ -4459,8 +4803,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>147</v>
+      </c>
+      <c r="K52">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="14">
         <v>40472</v>
       </c>
@@ -4489,8 +4839,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>105</v>
+      </c>
+      <c r="K53">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="14">
         <v>40473</v>
       </c>
@@ -4519,8 +4875,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <v>183</v>
+      </c>
+      <c r="K54">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="14">
         <v>40474</v>
       </c>
@@ -4549,8 +4911,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>153</v>
+      </c>
+      <c r="K55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="14">
         <v>40475</v>
       </c>
@@ -4579,8 +4947,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>112</v>
+      </c>
+      <c r="K56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="14">
         <v>40476</v>
       </c>
@@ -4609,8 +4983,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>128</v>
+      </c>
+      <c r="K57">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="14">
         <v>40477</v>
       </c>
@@ -4639,8 +5019,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>172</v>
+      </c>
+      <c r="K58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="14">
         <v>40478</v>
       </c>
@@ -4669,8 +5055,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>176</v>
+      </c>
+      <c r="K59">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="14">
         <v>40479</v>
       </c>
@@ -4699,8 +5091,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>161</v>
+      </c>
+      <c r="K60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="14">
         <v>40480</v>
       </c>
@@ -4729,8 +5127,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <v>101</v>
+      </c>
+      <c r="K61">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="14">
         <v>40481</v>
       </c>
@@ -4759,8 +5163,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62">
+        <v>109</v>
+      </c>
+      <c r="K62">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="14">
         <v>40482</v>
       </c>
@@ -4789,8 +5199,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63">
+        <v>161</v>
+      </c>
+      <c r="K63">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="14">
         <v>40452</v>
       </c>
@@ -4819,8 +5235,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64">
+        <v>106</v>
+      </c>
+      <c r="K64">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="14">
         <v>40453</v>
       </c>
@@ -4849,8 +5271,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65">
+        <v>157</v>
+      </c>
+      <c r="K65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="14">
         <v>40454</v>
       </c>
@@ -4879,8 +5307,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66">
+        <v>186</v>
+      </c>
+      <c r="K66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="14">
         <v>40455</v>
       </c>
@@ -4909,8 +5343,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67">
+        <v>107</v>
+      </c>
+      <c r="K67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="14">
         <v>40456</v>
       </c>
@@ -4939,8 +5379,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68">
+        <v>129</v>
+      </c>
+      <c r="K68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="14">
         <v>40457</v>
       </c>
@@ -4969,8 +5415,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69">
+        <v>168</v>
+      </c>
+      <c r="K69">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="14">
         <v>40458</v>
       </c>
@@ -4999,8 +5451,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70">
+        <v>164</v>
+      </c>
+      <c r="K70">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="14">
         <v>40459</v>
       </c>
@@ -5029,8 +5487,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <v>187</v>
+      </c>
+      <c r="K71">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="14">
         <v>40460</v>
       </c>
@@ -5059,8 +5523,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72">
+        <v>154</v>
+      </c>
+      <c r="K72">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="14">
         <v>40461</v>
       </c>
@@ -5089,8 +5559,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73">
+        <v>104</v>
+      </c>
+      <c r="K73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="14">
         <v>40462</v>
       </c>
@@ -5119,8 +5595,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74">
+        <v>151</v>
+      </c>
+      <c r="K74">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="14">
         <v>40463</v>
       </c>
@@ -5149,8 +5631,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75">
+        <v>141</v>
+      </c>
+      <c r="K75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="14">
         <v>40464</v>
       </c>
@@ -5179,8 +5667,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76">
+        <v>128</v>
+      </c>
+      <c r="K76">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="14">
         <v>40465</v>
       </c>
@@ -5209,8 +5703,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77">
+        <v>178</v>
+      </c>
+      <c r="K77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="14">
         <v>40466</v>
       </c>
@@ -5239,8 +5739,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78">
+        <v>115</v>
+      </c>
+      <c r="K78">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="14">
         <v>40467</v>
       </c>
@@ -5269,8 +5775,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79">
+        <v>108</v>
+      </c>
+      <c r="K79">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="14">
         <v>40468</v>
       </c>
@@ -5299,8 +5811,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80">
+        <v>130</v>
+      </c>
+      <c r="K80">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="14">
         <v>40469</v>
       </c>
@@ -5329,8 +5847,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81">
+        <v>176</v>
+      </c>
+      <c r="K81">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="14">
         <v>40470</v>
       </c>
@@ -5359,8 +5883,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82">
+        <v>169</v>
+      </c>
+      <c r="K82">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="14">
         <v>40471</v>
       </c>
@@ -5389,8 +5919,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83">
+        <v>152</v>
+      </c>
+      <c r="K83">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="14">
         <v>40472</v>
       </c>
@@ -5419,8 +5955,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84">
+        <v>186</v>
+      </c>
+      <c r="K84">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="14">
         <v>40473</v>
       </c>
@@ -5449,8 +5991,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85">
+        <v>187</v>
+      </c>
+      <c r="K85">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="14">
         <v>40474</v>
       </c>
@@ -5479,8 +6027,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86">
+        <v>143</v>
+      </c>
+      <c r="K86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="14">
         <v>40475</v>
       </c>
@@ -5509,8 +6063,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87">
+        <v>156</v>
+      </c>
+      <c r="K87">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="14">
         <v>40476</v>
       </c>
@@ -5539,8 +6099,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88">
+        <v>191</v>
+      </c>
+      <c r="K88">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="14">
         <v>40477</v>
       </c>
@@ -5569,8 +6135,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89">
+        <v>107</v>
+      </c>
+      <c r="K89">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="14">
         <v>40478</v>
       </c>
@@ -5599,8 +6171,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90">
+        <v>103</v>
+      </c>
+      <c r="K90">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="14">
         <v>40479</v>
       </c>
@@ -5629,8 +6207,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91">
+        <v>182</v>
+      </c>
+      <c r="K91">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="14">
         <v>40480</v>
       </c>
@@ -5659,8 +6243,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92">
+        <v>147</v>
+      </c>
+      <c r="K92">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="14">
         <v>40481</v>
       </c>
@@ -5689,8 +6279,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93">
+        <v>187</v>
+      </c>
+      <c r="K93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="14">
         <v>40482</v>
       </c>
@@ -5719,8 +6315,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94">
+        <v>195</v>
+      </c>
+      <c r="K94">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="14">
         <v>40452</v>
       </c>
@@ -5749,8 +6351,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95">
+        <v>116</v>
+      </c>
+      <c r="K95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="14">
         <v>40453</v>
       </c>
@@ -5779,8 +6387,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>146</v>
+      </c>
+      <c r="K96">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="14">
         <v>40454</v>
       </c>
@@ -5809,8 +6423,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97">
+        <v>122</v>
+      </c>
+      <c r="K97">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="14">
         <v>40455</v>
       </c>
@@ -5839,8 +6459,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98">
+        <v>174</v>
+      </c>
+      <c r="K98">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="14">
         <v>40456</v>
       </c>
@@ -5869,8 +6495,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99">
+        <v>122</v>
+      </c>
+      <c r="K99">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="14">
         <v>40457</v>
       </c>
@@ -5899,8 +6531,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>176</v>
+      </c>
+      <c r="K100">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="14">
         <v>40458</v>
       </c>
@@ -5929,8 +6567,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101">
+        <v>196</v>
+      </c>
+      <c r="K101">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="14">
         <v>40459</v>
       </c>
@@ -5959,8 +6603,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>187</v>
+      </c>
+      <c r="K102">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="14">
         <v>40460</v>
       </c>
@@ -5989,8 +6639,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>175</v>
+      </c>
+      <c r="K103">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="14">
         <v>40461</v>
       </c>
@@ -6019,8 +6675,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104">
+        <v>171</v>
+      </c>
+      <c r="K104">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="14">
         <v>40462</v>
       </c>
@@ -6049,8 +6711,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105">
+        <v>143</v>
+      </c>
+      <c r="K105">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="14">
         <v>40463</v>
       </c>
@@ -6079,8 +6747,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106">
+        <v>123</v>
+      </c>
+      <c r="K106">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="14">
         <v>40464</v>
       </c>
@@ -6109,8 +6783,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107">
+        <v>129</v>
+      </c>
+      <c r="K107">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="14">
         <v>40465</v>
       </c>
@@ -6139,8 +6819,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108">
+        <v>196</v>
+      </c>
+      <c r="K108">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="14">
         <v>40466</v>
       </c>
@@ -6169,8 +6855,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109">
+        <v>139</v>
+      </c>
+      <c r="K109">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="14">
         <v>40467</v>
       </c>
@@ -6199,8 +6891,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110">
+        <v>181</v>
+      </c>
+      <c r="K110">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="14">
         <v>40468</v>
       </c>
@@ -6229,8 +6927,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111">
+        <v>176</v>
+      </c>
+      <c r="K111">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="14">
         <v>40469</v>
       </c>
@@ -6259,8 +6963,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112">
+        <v>122</v>
+      </c>
+      <c r="K112">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="14">
         <v>40470</v>
       </c>
@@ -6289,8 +6999,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113">
+        <v>131</v>
+      </c>
+      <c r="K113">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="14">
         <v>40471</v>
       </c>
@@ -6319,8 +7035,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114">
+        <v>192</v>
+      </c>
+      <c r="K114">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="14">
         <v>40472</v>
       </c>
@@ -6349,8 +7071,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115">
+        <v>100</v>
+      </c>
+      <c r="K115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="14">
         <v>40473</v>
       </c>
@@ -6379,8 +7107,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116">
+        <v>177</v>
+      </c>
+      <c r="K116">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="14">
         <v>40474</v>
       </c>
@@ -6409,8 +7143,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117">
+        <v>192</v>
+      </c>
+      <c r="K117">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="14">
         <v>40475</v>
       </c>
@@ -6439,8 +7179,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118">
+        <v>197</v>
+      </c>
+      <c r="K118">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="14">
         <v>40476</v>
       </c>
@@ -6469,8 +7215,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119">
+        <v>178</v>
+      </c>
+      <c r="K119">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="14">
         <v>40477</v>
       </c>
@@ -6499,8 +7251,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120">
+        <v>124</v>
+      </c>
+      <c r="K120">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="14">
         <v>40478</v>
       </c>
@@ -6529,8 +7287,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121">
+        <v>123</v>
+      </c>
+      <c r="K121">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="14">
         <v>40479</v>
       </c>
@@ -6559,8 +7323,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122">
+        <v>175</v>
+      </c>
+      <c r="K122">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="14">
         <v>40480</v>
       </c>
@@ -6589,8 +7359,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123">
+        <v>157</v>
+      </c>
+      <c r="K123">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="14">
         <v>40481</v>
       </c>
@@ -6619,8 +7395,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124">
+        <v>173</v>
+      </c>
+      <c r="K124">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="14">
         <v>40482</v>
       </c>
@@ -6649,18 +7431,24 @@
       <c r="I125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125">
+        <v>125</v>
+      </c>
+      <c r="K125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11">
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11">
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="F128" s="13"/>
@@ -6834,99 +7622,335 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="6">
-        <f>(SUMIF('Clarin-Datos'!F2:F32,"&gt;0",'Clarin-Datos'!I2:I32)*B2+SUM('Clarin-Datos'!H2:H32))</f>
-        <v>241</v>
-      </c>
-      <c r="D2" s="17">
-        <f>C2*60-SUM('Clarin-Datos'!G2:G32)</f>
-        <v>7435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <f>(SUMIF('Clarin-Datos'!F2:F32,"&gt;0",'Clarin-Datos'!I2:I32)*C2+SUM('Clarin-Datos'!H2:H32))</f>
+        <v>199</v>
+      </c>
+      <c r="E2" s="17">
+        <f>D2*60-SUM('Clarin-Datos'!G2:G32)</f>
+        <v>4915</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(
+'Clarin-Datos'!J2*60/'Clarin-Datos'!K2,
+'Clarin-Datos'!J3*60/'Clarin-Datos'!K3,
+'Clarin-Datos'!J4*60/'Clarin-Datos'!K4,
+'Clarin-Datos'!J5*60/'Clarin-Datos'!K5,
+'Clarin-Datos'!J6*60/'Clarin-Datos'!K6,
+'Clarin-Datos'!J7*60/'Clarin-Datos'!K7,
+'Clarin-Datos'!J8*60/'Clarin-Datos'!K8,
+'Clarin-Datos'!J9*60/'Clarin-Datos'!K9,
+'Clarin-Datos'!J10*60/'Clarin-Datos'!K10,
+'Clarin-Datos'!J11*60/'Clarin-Datos'!K11,
+'Clarin-Datos'!J12*60/'Clarin-Datos'!K12,
+'Clarin-Datos'!J13*60/'Clarin-Datos'!K13,
+'Clarin-Datos'!J14*60/'Clarin-Datos'!K14,
+'Clarin-Datos'!J15*60/'Clarin-Datos'!K15,
+'Clarin-Datos'!J16*60/'Clarin-Datos'!K16,
+'Clarin-Datos'!J17*60/'Clarin-Datos'!K17,
+'Clarin-Datos'!J18*60/'Clarin-Datos'!K18,
+'Clarin-Datos'!J19*60/'Clarin-Datos'!K19,
+'Clarin-Datos'!J20*60/'Clarin-Datos'!K20,
+'Clarin-Datos'!J21*60/'Clarin-Datos'!K21,
+'Clarin-Datos'!J22*60/'Clarin-Datos'!K22,
+'Clarin-Datos'!J23*60/'Clarin-Datos'!K23,
+'Clarin-Datos'!J24*60/'Clarin-Datos'!K24,
+'Clarin-Datos'!J25*60/'Clarin-Datos'!K25,
+'Clarin-Datos'!J26*60/'Clarin-Datos'!K26,
+'Clarin-Datos'!J27*60/'Clarin-Datos'!K27,
+'Clarin-Datos'!J28*60/'Clarin-Datos'!K28,
+'Clarin-Datos'!J29*60/'Clarin-Datos'!K29,
+'Clarin-Datos'!J30*60/'Clarin-Datos'!K30,
+'Clarin-Datos'!J31*60/'Clarin-Datos'!K31,
+'Clarin-Datos'!J32*60/'Clarin-Datos'!K32)</f>
+        <v>140.26348022085023</v>
+      </c>
+      <c r="G2" s="18">
+        <f>SUM('Clarin-Datos'!J2:J32)</f>
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="6">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="6">
-        <f>SUMIF('Clarin-Datos'!F33:F63,"&gt;0",'Clarin-Datos'!I33:I63)*B3+SUM('Clarin-Datos'!H33:H63)</f>
-        <v>243</v>
-      </c>
-      <c r="D3" s="17">
-        <f>C3*60-SUM('Clarin-Datos'!G33:G63)</f>
-        <v>7578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
-        <f>SUMIF('Clarin-Datos'!F64:F94,"&gt;0",'Clarin-Datos'!I64:I94)*B4+SUM('Clarin-Datos'!H64:H94)</f>
-        <v>245</v>
-      </c>
-      <c r="D4" s="17">
-        <f>C4*60-SUM('Clarin-Datos'!G64:G94)</f>
-        <v>7631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <f>SUMIF('Clarin-Datos'!F33:F63,"&gt;0",'Clarin-Datos'!I33:I63)*C3+SUM('Clarin-Datos'!H33:H63)</f>
+        <v>201</v>
+      </c>
+      <c r="E3" s="17">
+        <f>D3*60-SUM('Clarin-Datos'!G33:G63)</f>
+        <v>5058</v>
+      </c>
+      <c r="F3" s="18">
+        <f>AVERAGE(
+'Clarin-Datos'!J33*60/'Clarin-Datos'!K33,
+'Clarin-Datos'!J34*60/'Clarin-Datos'!K34,
+'Clarin-Datos'!J35*60/'Clarin-Datos'!K35,
+'Clarin-Datos'!J36*60/'Clarin-Datos'!K36,
+'Clarin-Datos'!J37*60/'Clarin-Datos'!K37,
+'Clarin-Datos'!J38*60/'Clarin-Datos'!K38,
+'Clarin-Datos'!J39*60/'Clarin-Datos'!K39,
+'Clarin-Datos'!J40*60/'Clarin-Datos'!K40,
+'Clarin-Datos'!J41*60/'Clarin-Datos'!K41,
+'Clarin-Datos'!J42*60/'Clarin-Datos'!K42,
+'Clarin-Datos'!J43*60/'Clarin-Datos'!K43,
+'Clarin-Datos'!J44*60/'Clarin-Datos'!K44,
+'Clarin-Datos'!J45*60/'Clarin-Datos'!K45,
+'Clarin-Datos'!J46*60/'Clarin-Datos'!K46,
+'Clarin-Datos'!J47*60/'Clarin-Datos'!K47,
+'Clarin-Datos'!J48*60/'Clarin-Datos'!K48,
+'Clarin-Datos'!J49*60/'Clarin-Datos'!K49,
+'Clarin-Datos'!J50*60/'Clarin-Datos'!K50,
+'Clarin-Datos'!J51*60/'Clarin-Datos'!K51,
+'Clarin-Datos'!J52*60/'Clarin-Datos'!K52,
+'Clarin-Datos'!J53*60/'Clarin-Datos'!K53,
+'Clarin-Datos'!J54*60/'Clarin-Datos'!K54,
+'Clarin-Datos'!J55*60/'Clarin-Datos'!K55,
+'Clarin-Datos'!J56*60/'Clarin-Datos'!K56,
+'Clarin-Datos'!J57*60/'Clarin-Datos'!K57,
+'Clarin-Datos'!J58*60/'Clarin-Datos'!K58,
+'Clarin-Datos'!J59*60/'Clarin-Datos'!K59,
+'Clarin-Datos'!J60*60/'Clarin-Datos'!K60,
+'Clarin-Datos'!J61*60/'Clarin-Datos'!K61,
+'Clarin-Datos'!J62*60/'Clarin-Datos'!K62,
+'Clarin-Datos'!J63*60/'Clarin-Datos'!K63)</f>
+        <v>153.62040260795868</v>
+      </c>
+      <c r="G3" s="18">
+        <f>SUM('Clarin-Datos'!J33:J63)</f>
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUM(D2:D3)</f>
+        <v>400</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUM(E2:E3)</f>
+        <v>9973</v>
+      </c>
+      <c r="F4" s="7">
+        <f>AVERAGE(F2:F3)</f>
+        <v>146.94194141440445</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUM(G2:G3)</f>
+        <v>8964</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="6">
-        <f>SUMIF('Clarin-Datos'!F95:F125,"&gt;0",'Clarin-Datos'!I95:I125)*B5+SUM('Clarin-Datos'!H95:H125)</f>
-        <v>244</v>
-      </c>
-      <c r="D5" s="17">
-        <f>C5*60-SUM('Clarin-Datos'!G95:G125)</f>
-        <v>7341</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <f>SUMIF('Clarin-Datos'!F64:F94,"&gt;0",'Clarin-Datos'!I64:I94)*C5+SUM('Clarin-Datos'!H64:H94)</f>
+        <v>203</v>
+      </c>
+      <c r="E5" s="17">
+        <f>D5*60-SUM('Clarin-Datos'!G64:G94)</f>
+        <v>5111</v>
+      </c>
+      <c r="F5" s="18">
+        <f>AVERAGE(
+'Clarin-Datos'!J64*60/'Clarin-Datos'!K64,
+'Clarin-Datos'!J65*60/'Clarin-Datos'!K65,
+'Clarin-Datos'!J66*60/'Clarin-Datos'!K66,
+'Clarin-Datos'!J67*60/'Clarin-Datos'!K67,
+'Clarin-Datos'!J68*60/'Clarin-Datos'!K68,
+'Clarin-Datos'!J69*60/'Clarin-Datos'!K69,
+'Clarin-Datos'!J70*60/'Clarin-Datos'!K70,
+'Clarin-Datos'!J71*60/'Clarin-Datos'!K71,
+'Clarin-Datos'!J72*60/'Clarin-Datos'!K72,
+'Clarin-Datos'!J73*60/'Clarin-Datos'!K73,
+'Clarin-Datos'!J74*60/'Clarin-Datos'!K74,
+'Clarin-Datos'!J75*60/'Clarin-Datos'!K75,
+'Clarin-Datos'!J76*60/'Clarin-Datos'!K76,
+'Clarin-Datos'!J77*60/'Clarin-Datos'!K77,
+'Clarin-Datos'!J78*60/'Clarin-Datos'!K78,
+'Clarin-Datos'!J79*60/'Clarin-Datos'!K79,
+'Clarin-Datos'!J80*60/'Clarin-Datos'!K80,
+'Clarin-Datos'!J81*60/'Clarin-Datos'!K81,
+'Clarin-Datos'!J82*60/'Clarin-Datos'!K82,
+'Clarin-Datos'!J83*60/'Clarin-Datos'!K83,
+'Clarin-Datos'!J84*60/'Clarin-Datos'!K84,
+'Clarin-Datos'!J85*60/'Clarin-Datos'!K85,
+'Clarin-Datos'!J86*60/'Clarin-Datos'!K86,
+'Clarin-Datos'!J87*60/'Clarin-Datos'!K87,
+'Clarin-Datos'!J88*60/'Clarin-Datos'!K88,
+'Clarin-Datos'!J89*60/'Clarin-Datos'!K89,
+'Clarin-Datos'!J90*60/'Clarin-Datos'!K90,
+'Clarin-Datos'!J91*60/'Clarin-Datos'!K91,
+'Clarin-Datos'!J92*60/'Clarin-Datos'!K92,
+'Clarin-Datos'!J93*60/'Clarin-Datos'!K93,
+'Clarin-Datos'!J94*60/'Clarin-Datos'!K94)</f>
+        <v>163.69609088609747</v>
+      </c>
+      <c r="G5" s="18">
+        <f>SUM('Clarin-Datos'!J64:J94)</f>
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUMIF('Clarin-Datos'!F95:F125,"&gt;0",'Clarin-Datos'!I95:I125)*C6+SUM('Clarin-Datos'!H95:H125)</f>
+        <v>202</v>
+      </c>
+      <c r="E6" s="17">
+        <f>D6*60-SUM('Clarin-Datos'!G95:G125)</f>
+        <v>4821</v>
+      </c>
+      <c r="F6" s="18">
+        <f>AVERAGE(
+'Clarin-Datos'!J95*60/'Clarin-Datos'!K95,
+'Clarin-Datos'!J96*60/'Clarin-Datos'!K96,
+'Clarin-Datos'!J97*60/'Clarin-Datos'!K97,
+'Clarin-Datos'!J98*60/'Clarin-Datos'!K98,
+'Clarin-Datos'!J99*60/'Clarin-Datos'!K99,
+'Clarin-Datos'!J100*60/'Clarin-Datos'!K100,
+'Clarin-Datos'!J101*60/'Clarin-Datos'!K101,
+'Clarin-Datos'!J102*60/'Clarin-Datos'!K102,
+'Clarin-Datos'!J103*60/'Clarin-Datos'!K103,
+'Clarin-Datos'!J104*60/'Clarin-Datos'!K104,
+'Clarin-Datos'!J105*60/'Clarin-Datos'!K105,
+'Clarin-Datos'!J106*60/'Clarin-Datos'!K106,
+'Clarin-Datos'!J107*60/'Clarin-Datos'!K107,
+'Clarin-Datos'!J108*60/'Clarin-Datos'!K108,
+'Clarin-Datos'!J109*60/'Clarin-Datos'!K109,
+'Clarin-Datos'!J110*60/'Clarin-Datos'!K110,
+'Clarin-Datos'!J111*60/'Clarin-Datos'!K111,
+'Clarin-Datos'!J112*60/'Clarin-Datos'!K112,
+'Clarin-Datos'!J113*60/'Clarin-Datos'!K113,
+'Clarin-Datos'!J114*60/'Clarin-Datos'!K114,
+'Clarin-Datos'!J115*60/'Clarin-Datos'!K115,
+'Clarin-Datos'!J116*60/'Clarin-Datos'!K116,
+'Clarin-Datos'!J117*60/'Clarin-Datos'!K117,
+'Clarin-Datos'!J118*60/'Clarin-Datos'!K118,
+'Clarin-Datos'!J119*60/'Clarin-Datos'!K119,
+'Clarin-Datos'!J120*60/'Clarin-Datos'!K120,
+'Clarin-Datos'!J121*60/'Clarin-Datos'!K121,
+'Clarin-Datos'!J122*60/'Clarin-Datos'!K122,
+'Clarin-Datos'!J123*60/'Clarin-Datos'!K123,
+'Clarin-Datos'!J124*60/'Clarin-Datos'!K124,
+'Clarin-Datos'!J125*60/'Clarin-Datos'!K125)</f>
+        <v>154.35010069266909</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM('Clarin-Datos'!J95:J125)</f>
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <f>SUM(D4:D6)</f>
+        <v>805</v>
+      </c>
+      <c r="E7" s="19">
+        <f>SUM(E2,E3,E5,E6)</f>
+        <v>19905</v>
+      </c>
+      <c r="F7" s="7">
+        <f>AVERAGE(F2,F3,F5,F6)</f>
+        <v>152.98251860189387</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUM(G4:G6)</f>
+        <v>18496</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>